--- a/Data/BermudaSalinity.xlsx
+++ b/Data/BermudaSalinity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="340">
   <si>
     <t>Fragment.ID</t>
   </si>
@@ -1390,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B172" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="B288" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3767,7 +3767,7 @@
         <v>37.380000000000003</v>
       </c>
       <c r="D203" s="4">
-        <v>43185</v>
+        <v>43187</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>339</v>
@@ -3780,9 +3780,15 @@
       <c r="B204" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
+      <c r="C204" s="2">
+        <v>37.64</v>
+      </c>
+      <c r="D204" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
@@ -4666,9 +4672,15 @@
       <c r="B284" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C284" s="2"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
+      <c r="C284" s="2">
+        <v>37.74</v>
+      </c>
+      <c r="D284" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
@@ -4677,9 +4689,15 @@
       <c r="B285" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C285" s="2"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
+      <c r="C285" s="2">
+        <v>37.74</v>
+      </c>
+      <c r="D285" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
@@ -4688,9 +4706,15 @@
       <c r="B286" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C286" s="2"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
+      <c r="C286" s="2">
+        <v>37.79</v>
+      </c>
+      <c r="D286" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
@@ -4699,9 +4723,15 @@
       <c r="B287" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C287" s="2"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
+      <c r="C287" s="2">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="D287" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
@@ -4721,9 +4751,15 @@
       <c r="B289" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C289" s="2"/>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
+      <c r="C289" s="2">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="D289" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
@@ -4732,9 +4768,15 @@
       <c r="B290" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C290" s="2"/>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
+      <c r="C290" s="2">
+        <v>37.75</v>
+      </c>
+      <c r="D290" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
@@ -4743,9 +4785,15 @@
       <c r="B291" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C291" s="2"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
+      <c r="C291" s="2">
+        <v>37.75</v>
+      </c>
+      <c r="D291" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
@@ -4754,9 +4802,15 @@
       <c r="B292" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
+      <c r="C292" s="2">
+        <v>37.78</v>
+      </c>
+      <c r="D292" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
@@ -4776,9 +4830,15 @@
       <c r="B294" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C294" s="2"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
+      <c r="C294" s="2">
+        <v>37.74</v>
+      </c>
+      <c r="D294" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
@@ -4787,9 +4847,15 @@
       <c r="B295" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C295" s="2"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
+      <c r="C295" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D295" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
@@ -4809,9 +4875,15 @@
       <c r="B297" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C297" s="2"/>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
+      <c r="C297" s="2">
+        <v>37.75</v>
+      </c>
+      <c r="D297" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
@@ -4820,9 +4892,15 @@
       <c r="B298" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C298" s="2"/>
-      <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
+      <c r="C298" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D298" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
@@ -4842,9 +4920,15 @@
       <c r="B300" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C300" s="2"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
+      <c r="C300" s="2">
+        <v>37.61</v>
+      </c>
+      <c r="D300" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
@@ -4875,9 +4959,15 @@
       <c r="B303" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C303" s="2"/>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
+      <c r="C303" s="2">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="D303" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
@@ -4886,9 +4976,15 @@
       <c r="B304" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C304" s="2"/>
-      <c r="D304" s="1"/>
-      <c r="E304" s="1"/>
+      <c r="C304" s="2">
+        <v>37.64</v>
+      </c>
+      <c r="D304" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
@@ -4897,9 +4993,15 @@
       <c r="B305" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C305" s="2"/>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
+      <c r="C305" s="2">
+        <v>37.64</v>
+      </c>
+      <c r="D305" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
@@ -4908,9 +5010,15 @@
       <c r="B306" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C306" s="2"/>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
+      <c r="C306" s="2">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="D306" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
@@ -4919,9 +5027,15 @@
       <c r="B307" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C307" s="2"/>
-      <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
+      <c r="C307" s="2">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="D307" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
@@ -4930,9 +5044,15 @@
       <c r="B308" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C308" s="2"/>
-      <c r="D308" s="1"/>
-      <c r="E308" s="1"/>
+      <c r="C308" s="2">
+        <v>37.68</v>
+      </c>
+      <c r="D308" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
@@ -4941,9 +5061,15 @@
       <c r="B309" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C309" s="2"/>
-      <c r="D309" s="1"/>
-      <c r="E309" s="1"/>
+      <c r="C309" s="2">
+        <v>37.64</v>
+      </c>
+      <c r="D309" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2">

--- a/Data/BermudaSalinity.xlsx
+++ b/Data/BermudaSalinity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="341">
   <si>
     <t>Fragment.ID</t>
   </si>
@@ -1044,6 +1044,9 @@
   </si>
   <si>
     <t>JM</t>
+  </si>
+  <si>
+    <t>3/39/2018</t>
   </si>
 </sst>
 </file>
@@ -1390,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B288" workbookViewId="0">
-      <selection activeCell="C306" sqref="C306"/>
+    <sheetView tabSelected="1" topLeftCell="B204" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3814,9 +3817,15 @@
       <c r="B206" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
+      <c r="C206" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
@@ -3825,9 +3834,15 @@
       <c r="B207" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
+      <c r="C207" s="2">
+        <v>37.61</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -3847,9 +3862,15 @@
       <c r="B209" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C209" s="2"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
+      <c r="C209" s="2">
+        <v>37.65</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
@@ -3858,9 +3879,15 @@
       <c r="B210" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C210" s="2"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
+      <c r="C210" s="2">
+        <v>37.64</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
@@ -3869,9 +3896,15 @@
       <c r="B211" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
+      <c r="C211" s="2">
+        <v>37.65</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -3891,9 +3924,15 @@
       <c r="B213" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
+      <c r="C213" s="2">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
@@ -3935,9 +3974,15 @@
       <c r="B217" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
+      <c r="C217" s="2">
+        <v>37.61</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -3946,9 +3991,15 @@
       <c r="B218" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
+      <c r="C218" s="2">
+        <v>37.65</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
@@ -3968,9 +4019,15 @@
       <c r="B220" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
+      <c r="C220" s="2">
+        <v>37.69</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
@@ -3979,9 +4036,15 @@
       <c r="B221" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C221" s="2"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
+      <c r="C221" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -3990,9 +4053,15 @@
       <c r="B222" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C222" s="2"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
+      <c r="C222" s="2">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
@@ -4034,9 +4103,15 @@
       <c r="B226" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
+      <c r="C226" s="2">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
@@ -4045,9 +4120,15 @@
       <c r="B227" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
+      <c r="C227" s="2">
+        <v>37.64</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -4056,9 +4137,15 @@
       <c r="B228" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C228" s="2"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
+      <c r="C228" s="2">
+        <v>37.71</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
@@ -4067,9 +4154,15 @@
       <c r="B229" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
+      <c r="C229" s="2">
+        <v>37.71</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
@@ -4078,9 +4171,15 @@
       <c r="B230" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
+      <c r="C230" s="2">
+        <v>37.72</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
@@ -4089,9 +4188,15 @@
       <c r="B231" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
+      <c r="C231" s="2">
+        <v>37.67</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
@@ -4909,7 +5014,9 @@
       <c r="B299" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C299" s="2"/>
+      <c r="C299" s="2">
+        <v>37.9</v>
+      </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
@@ -5425,6 +5532,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/BermudaSalinity.xlsx
+++ b/Data/BermudaSalinity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="340">
   <si>
     <t>Fragment.ID</t>
   </si>
@@ -1044,9 +1044,6 @@
   </si>
   <si>
     <t>JM</t>
-  </si>
-  <si>
-    <t>3/39/2018</t>
   </si>
 </sst>
 </file>
@@ -1105,12 +1102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B204" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,9 +1801,15 @@
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="2">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -1814,9 +1818,15 @@
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="2">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="D37" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -1825,9 +1835,15 @@
       <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="C38" s="2">
+        <v>37.94</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -1847,9 +1863,15 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="2">
+        <v>37.96</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -1858,9 +1880,15 @@
       <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="2">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1880,9 +1908,15 @@
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="2">
+        <v>37.92</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -1891,9 +1925,15 @@
       <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="2">
+        <v>37.96</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -1913,9 +1953,15 @@
       <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="2">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="D46" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -1924,9 +1970,15 @@
       <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="C47" s="2">
+        <v>37.94</v>
+      </c>
+      <c r="D47" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -1946,9 +1998,15 @@
       <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="C49" s="2">
+        <v>37.96</v>
+      </c>
+      <c r="D49" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -1957,9 +2015,15 @@
       <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="C50" s="2">
+        <v>37.93</v>
+      </c>
+      <c r="D50" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -1968,9 +2032,15 @@
       <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="C51" s="2">
+        <v>37.96</v>
+      </c>
+      <c r="D51" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -1979,9 +2049,15 @@
       <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="C52" s="2">
+        <v>37.93</v>
+      </c>
+      <c r="D52" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -3820,8 +3896,8 @@
       <c r="C206" s="2">
         <v>37.6</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>340</v>
+      <c r="D206" s="4">
+        <v>43188</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>339</v>
@@ -3837,8 +3913,8 @@
       <c r="C207" s="2">
         <v>37.61</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>340</v>
+      <c r="D207" s="4">
+        <v>43188</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>339</v>
@@ -3851,9 +3927,15 @@
       <c r="B208" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
+      <c r="C208" s="2">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="D208" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
@@ -3865,8 +3947,8 @@
       <c r="C209" s="2">
         <v>37.65</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>340</v>
+      <c r="D209" s="4">
+        <v>43188</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>339</v>
@@ -3882,8 +3964,8 @@
       <c r="C210" s="2">
         <v>37.64</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>340</v>
+      <c r="D210" s="4">
+        <v>43188</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>339</v>
@@ -3897,10 +3979,10 @@
         <v>209</v>
       </c>
       <c r="C211" s="2">
-        <v>37.65</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>340</v>
+        <v>37.72</v>
+      </c>
+      <c r="D211" s="4">
+        <v>43192</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>339</v>
@@ -3913,9 +3995,15 @@
       <c r="B212" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
+      <c r="C212" s="2">
+        <v>37.74</v>
+      </c>
+      <c r="D212" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
@@ -3927,8 +4015,8 @@
       <c r="C213" s="2">
         <v>37.619999999999997</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>340</v>
+      <c r="D213" s="4">
+        <v>43188</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>339</v>
@@ -3941,9 +4029,15 @@
       <c r="B214" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C214" s="2"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
+      <c r="C214" s="2">
+        <v>37.74</v>
+      </c>
+      <c r="D214" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
@@ -3952,9 +4046,15 @@
       <c r="B215" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C215" s="2"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
+      <c r="C215" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D215" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
@@ -3977,8 +4077,8 @@
       <c r="C217" s="2">
         <v>37.61</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>340</v>
+      <c r="D217" s="4">
+        <v>43188</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>339</v>
@@ -3994,8 +4094,8 @@
       <c r="C218" s="2">
         <v>37.65</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>340</v>
+      <c r="D218" s="4">
+        <v>43188</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>339</v>
@@ -4008,9 +4108,15 @@
       <c r="B219" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
+      <c r="C219" s="2">
+        <v>37.76</v>
+      </c>
+      <c r="D219" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
@@ -4022,8 +4128,8 @@
       <c r="C220" s="2">
         <v>37.69</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>340</v>
+      <c r="D220" s="5">
+        <v>43188</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>339</v>
@@ -4039,8 +4145,8 @@
       <c r="C221" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>340</v>
+      <c r="D221" s="4">
+        <v>43188</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>339</v>
@@ -4056,8 +4162,8 @@
       <c r="C222" s="2">
         <v>37.729999999999997</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>340</v>
+      <c r="D222" s="4">
+        <v>43188</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>339</v>
@@ -4070,9 +4176,15 @@
       <c r="B223" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C223" s="2"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
+      <c r="C223" s="2">
+        <v>37.74</v>
+      </c>
+      <c r="D223" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
@@ -4081,9 +4193,15 @@
       <c r="B224" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
+      <c r="C224" s="2">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="D224" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
@@ -4092,9 +4210,15 @@
       <c r="B225" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C225" s="2"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
+      <c r="C225" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D225" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
@@ -4106,8 +4230,8 @@
       <c r="C226" s="2">
         <v>37.729999999999997</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>340</v>
+      <c r="D226" s="4">
+        <v>43188</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>339</v>
@@ -4123,8 +4247,8 @@
       <c r="C227" s="2">
         <v>37.64</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>340</v>
+      <c r="D227" s="4">
+        <v>43188</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>339</v>
@@ -4140,8 +4264,8 @@
       <c r="C228" s="2">
         <v>37.71</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>340</v>
+      <c r="D228" s="4">
+        <v>43188</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>339</v>
@@ -4157,8 +4281,8 @@
       <c r="C229" s="2">
         <v>37.71</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>340</v>
+      <c r="D229" s="4">
+        <v>43188</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>339</v>
@@ -4174,8 +4298,8 @@
       <c r="C230" s="2">
         <v>37.72</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>340</v>
+      <c r="D230" s="4">
+        <v>43188</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>339</v>
@@ -4191,8 +4315,8 @@
       <c r="C231" s="2">
         <v>37.67</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>340</v>
+      <c r="D231" s="4">
+        <v>43188</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>339</v>
@@ -4845,9 +4969,15 @@
       <c r="B288" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C288" s="2"/>
-      <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
+      <c r="C288" s="2">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="D288" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
@@ -4924,9 +5054,15 @@
       <c r="B293" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
+      <c r="C293" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="D293" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
@@ -4969,9 +5105,15 @@
       <c r="B296" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C296" s="2"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
+      <c r="C296" s="2">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="D296" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
@@ -5015,10 +5157,14 @@
         <v>296</v>
       </c>
       <c r="C299" s="2">
-        <v>37.9</v>
-      </c>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
+        <v>37.83</v>
+      </c>
+      <c r="D299" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
@@ -5044,9 +5190,15 @@
       <c r="B301" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C301" s="2"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
+      <c r="C301" s="2">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="D301" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
@@ -5055,9 +5207,15 @@
       <c r="B302" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C302" s="2"/>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
+      <c r="C302" s="2">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="D302" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
@@ -5169,10 +5327,10 @@
         <v>306</v>
       </c>
       <c r="C309" s="2">
-        <v>37.64</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="D309" s="4">
-        <v>43187</v>
+        <v>43192</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>339</v>

--- a/Data/BermudaSalinity.xlsx
+++ b/Data/BermudaSalinity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="340">
   <si>
     <t>Fragment.ID</t>
   </si>
@@ -128,9 +128,6 @@
     <t>start 2b-Dark</t>
   </si>
   <si>
-    <t>start 2c -Dark</t>
-  </si>
-  <si>
     <t>start 1a-Light</t>
   </si>
   <si>
@@ -1044,6 +1041,9 @@
   </si>
   <si>
     <t>JM</t>
+  </si>
+  <si>
+    <t>start 2c-Dark</t>
   </si>
 </sst>
 </file>
@@ -1102,13 +1102,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,33 +1394,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="G212" sqref="G212"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>338</v>
+      <c r="C1" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1427,9 +1431,15 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="6">
+        <v>37.93</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1438,9 +1448,15 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="6">
+        <v>37.79</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1449,9 +1465,15 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="6">
+        <v>37.74</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1460,9 +1482,15 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="6">
+        <v>37.79</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1471,9 +1499,15 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="6">
+        <v>37.81</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1482,9 +1516,15 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="6">
+        <v>37.81</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1493,7 +1533,7 @@
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -1504,7 +1544,7 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -1515,7 +1555,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -1526,9 +1566,15 @@
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="6">
+        <v>37.81</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1537,7 +1583,7 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
@@ -1548,9 +1594,15 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="7">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1559,9 +1611,15 @@
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="6">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1570,9 +1628,15 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="6">
+        <v>37.79</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1581,9 +1645,15 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="6">
+        <v>37.79</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1592,9 +1662,15 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1603,9 +1679,15 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="6">
+        <v>37.83</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1614,9 +1696,15 @@
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="6">
+        <v>38.03</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1625,9 +1713,15 @@
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="6">
+        <v>38.08</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1636,9 +1730,15 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="6">
+        <v>38.04</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1647,8 +1747,8 @@
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1658,9 +1758,15 @@
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="6">
+        <v>38.01</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1669,9 +1775,15 @@
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="6">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -1680,9 +1792,15 @@
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="6">
+        <v>38.04</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -1691,9 +1809,15 @@
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="6">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1702,9 +1826,15 @@
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="6">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -1713,8 +1843,8 @@
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,9 +1854,15 @@
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="6">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -1735,8 +1871,8 @@
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1746,7 +1882,7 @@
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
@@ -1757,9 +1893,15 @@
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="C32" s="6">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="D32" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1768,9 +1910,15 @@
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="C33" s="6">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="D33" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1779,36 +1927,48 @@
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="C34" s="6">
+        <v>38.07</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20171001</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+        <v>339</v>
+      </c>
+      <c r="C35" s="6">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20171001</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="2">
+        <v>34</v>
+      </c>
+      <c r="C36" s="6">
         <v>37.950000000000003</v>
       </c>
       <c r="D36" s="4">
         <v>43192</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1816,16 +1976,16 @@
         <v>20171001</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="6">
         <v>37.950000000000003</v>
       </c>
       <c r="D37" s="4">
         <v>43192</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1833,16 +1993,16 @@
         <v>20171001</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="2">
+        <v>36</v>
+      </c>
+      <c r="C38" s="6">
         <v>37.94</v>
       </c>
       <c r="D38" s="4">
         <v>43192</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1850,9 +2010,9 @@
         <v>20171001</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="6"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
@@ -1861,16 +2021,16 @@
         <v>20171001</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="2">
+        <v>38</v>
+      </c>
+      <c r="C40" s="6">
         <v>37.96</v>
       </c>
       <c r="D40" s="4">
         <v>43192</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,16 +2038,16 @@
         <v>20171001</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="2">
+        <v>39</v>
+      </c>
+      <c r="C41" s="6">
         <v>37.909999999999997</v>
       </c>
       <c r="D41" s="4">
         <v>43192</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,9 +2055,9 @@
         <v>20171001</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
@@ -1906,16 +2066,16 @@
         <v>20171001</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="6">
         <v>37.92</v>
       </c>
       <c r="D43" s="4">
         <v>43192</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1923,16 +2083,16 @@
         <v>20171001</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="2">
+        <v>42</v>
+      </c>
+      <c r="C44" s="6">
         <v>37.96</v>
       </c>
       <c r="D44" s="4">
         <v>43192</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1940,9 +2100,9 @@
         <v>20171001</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
@@ -1951,16 +2111,16 @@
         <v>20171001</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2">
+        <v>44</v>
+      </c>
+      <c r="C46" s="6">
         <v>37.909999999999997</v>
       </c>
       <c r="D46" s="4">
         <v>43192</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,16 +2128,16 @@
         <v>20171001</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="2">
+        <v>45</v>
+      </c>
+      <c r="C47" s="6">
         <v>37.94</v>
       </c>
       <c r="D47" s="4">
         <v>43192</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,9 +2145,9 @@
         <v>20171001</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="6"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
@@ -1996,16 +2156,16 @@
         <v>20171001</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="2">
+        <v>47</v>
+      </c>
+      <c r="C49" s="6">
         <v>37.96</v>
       </c>
       <c r="D49" s="4">
         <v>43192</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2013,16 +2173,16 @@
         <v>20171001</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="2">
+        <v>48</v>
+      </c>
+      <c r="C50" s="6">
         <v>37.93</v>
       </c>
       <c r="D50" s="4">
         <v>43192</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,16 +2190,16 @@
         <v>20171001</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="2">
+        <v>49</v>
+      </c>
+      <c r="C51" s="6">
         <v>37.96</v>
       </c>
       <c r="D51" s="4">
         <v>43192</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2047,16 +2207,16 @@
         <v>20171001</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="6">
         <v>37.93</v>
       </c>
       <c r="D52" s="4">
         <v>43192</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2064,9 +2224,9 @@
         <v>20171001</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="6"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
@@ -2075,9 +2235,9 @@
         <v>20171001</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="6"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
@@ -2086,9 +2246,9 @@
         <v>20171001</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="6"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
@@ -2097,9 +2257,9 @@
         <v>20171001</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="6"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
@@ -2108,9 +2268,9 @@
         <v>20171001</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="6"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
@@ -2119,9 +2279,9 @@
         <v>20171001</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
@@ -2130,9 +2290,9 @@
         <v>20171001</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="6"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
@@ -2141,9 +2301,9 @@
         <v>20171001</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="6"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
@@ -2152,9 +2312,9 @@
         <v>20171001</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="6"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
@@ -2163,9 +2323,9 @@
         <v>20171001</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="6"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
@@ -2174,9 +2334,9 @@
         <v>20171001</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="6"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
@@ -2185,9 +2345,9 @@
         <v>20171001</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="6"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
@@ -2196,9 +2356,9 @@
         <v>20171001</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="6"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
@@ -2207,9 +2367,9 @@
         <v>20171001</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="6"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
@@ -2218,9 +2378,9 @@
         <v>20171001</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="6"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
@@ -2229,9 +2389,9 @@
         <v>20171001</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="6"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
@@ -2240,9 +2400,9 @@
         <v>20171001</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="6"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
@@ -2251,9 +2411,9 @@
         <v>20171002</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="6"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
@@ -2262,9 +2422,9 @@
         <v>20171002</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="6"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
@@ -2273,9 +2433,9 @@
         <v>20171002</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C72" s="6"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
@@ -2284,9 +2444,9 @@
         <v>20171002</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C73" s="6"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
@@ -2295,9 +2455,9 @@
         <v>20171002</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C74" s="6"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
@@ -2306,9 +2466,9 @@
         <v>20171002</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C75" s="6"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
@@ -2317,9 +2477,9 @@
         <v>20171002</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C76" s="6"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
@@ -2328,9 +2488,9 @@
         <v>20171002</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="C77" s="6"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
@@ -2339,9 +2499,9 @@
         <v>20171002</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="C78" s="6"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
@@ -2350,9 +2510,9 @@
         <v>20171002</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C79" s="6"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
@@ -2361,9 +2521,9 @@
         <v>20171002</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C80" s="6"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
@@ -2372,9 +2532,9 @@
         <v>20171002</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="C81" s="6"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
@@ -2383,9 +2543,9 @@
         <v>20171002</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C82" s="6"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
@@ -2394,9 +2554,9 @@
         <v>20171002</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C83" s="6"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
@@ -2405,9 +2565,9 @@
         <v>20171002</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="C84" s="6"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
@@ -2416,9 +2576,9 @@
         <v>20171002</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C85" s="6"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
@@ -2427,9 +2587,9 @@
         <v>20171002</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C86" s="6"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
@@ -2438,9 +2598,9 @@
         <v>20171002</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C87" s="6"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
@@ -2449,9 +2609,9 @@
         <v>20171002</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C88" s="6"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
@@ -2460,9 +2620,9 @@
         <v>20171002</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C89" s="6"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
@@ -2471,9 +2631,9 @@
         <v>20171002</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C90" s="6"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
@@ -2482,9 +2642,9 @@
         <v>20171002</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C91" s="6"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
@@ -2493,9 +2653,9 @@
         <v>20171002</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C92" s="6"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
@@ -2504,9 +2664,9 @@
         <v>20171002</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C93" s="6"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
@@ -2515,9 +2675,9 @@
         <v>20171002</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C94" s="6"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
@@ -2526,9 +2686,9 @@
         <v>20171002</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C95" s="6"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
@@ -2537,9 +2697,9 @@
         <v>20171002</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C96" s="6"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
@@ -2548,9 +2708,9 @@
         <v>20171002</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C97" s="6"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
@@ -2559,9 +2719,9 @@
         <v>20171002</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C98" s="6"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
@@ -2570,9 +2730,9 @@
         <v>20171002</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C99" s="6"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
@@ -2581,9 +2741,9 @@
         <v>20171002</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="C100" s="6"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
@@ -2592,9 +2752,9 @@
         <v>20171002</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="C101" s="6"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
@@ -2603,9 +2763,9 @@
         <v>20171002</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C102" s="6"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
@@ -2614,9 +2774,9 @@
         <v>20171002</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C103" s="6"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
@@ -2625,9 +2785,9 @@
         <v>20171002</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C104" s="6"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
@@ -2636,9 +2796,9 @@
         <v>20171002</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C105" s="6"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
@@ -2647,9 +2807,9 @@
         <v>20171002</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="C106" s="6"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
@@ -2658,9 +2818,9 @@
         <v>20171002</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C107" s="6"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
@@ -2669,9 +2829,9 @@
         <v>20171002</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C108" s="6"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
@@ -2680,9 +2840,9 @@
         <v>20171002</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="C109" s="6"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
@@ -2691,9 +2851,9 @@
         <v>20171002</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C110" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C110" s="6"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
@@ -2702,9 +2862,9 @@
         <v>20171002</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
@@ -2713,9 +2873,9 @@
         <v>20171002</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C112" s="6"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
@@ -2724,9 +2884,9 @@
         <v>20171002</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C113" s="6"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
@@ -2735,9 +2895,9 @@
         <v>20171002</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C114" s="6"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
@@ -2746,9 +2906,9 @@
         <v>20171002</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C115" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C115" s="6"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
@@ -2757,9 +2917,9 @@
         <v>20171002</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C116" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="C116" s="6"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
@@ -2768,9 +2928,9 @@
         <v>20171002</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C117" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="C117" s="6"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
@@ -2779,9 +2939,9 @@
         <v>20171002</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="C118" s="6"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
@@ -2790,9 +2950,9 @@
         <v>20171002</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="C119" s="6"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
@@ -2801,9 +2961,9 @@
         <v>20171002</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C120" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="C120" s="6"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
@@ -2812,9 +2972,9 @@
         <v>20171002</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C121" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C121" s="6"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
@@ -2823,9 +2983,9 @@
         <v>20171002</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="C122" s="6"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
@@ -2834,9 +2994,9 @@
         <v>20171002</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="C123" s="6"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
@@ -2845,9 +3005,9 @@
         <v>20171002</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="C124" s="6"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
@@ -2856,9 +3016,9 @@
         <v>20171002</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C125" s="6"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
@@ -2867,9 +3027,9 @@
         <v>20171002</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="C126" s="6"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
@@ -2878,9 +3038,9 @@
         <v>20171002</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C127" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C127" s="6"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
@@ -2889,9 +3049,9 @@
         <v>20171002</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C128" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="C128" s="6"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
@@ -2900,9 +3060,9 @@
         <v>20171002</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C129" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C129" s="6"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
@@ -2911,9 +3071,9 @@
         <v>20171002</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C130" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C130" s="6"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
@@ -2922,9 +3082,9 @@
         <v>20171002</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C131" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C131" s="6"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
@@ -2933,9 +3093,9 @@
         <v>20171002</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C132" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C132" s="6"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
@@ -2944,9 +3104,9 @@
         <v>20171002</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C133" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C133" s="6"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
@@ -2955,9 +3115,9 @@
         <v>20171002</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C134" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C134" s="6"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
@@ -2966,9 +3126,9 @@
         <v>20171002</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C135" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C135" s="6"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
@@ -2977,9 +3137,9 @@
         <v>20171002</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C136" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C136" s="6"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
@@ -2988,9 +3148,9 @@
         <v>20171002</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C137" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C137" s="6"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
@@ -2999,9 +3159,9 @@
         <v>20171002</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C138" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C138" s="6"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
@@ -3010,9 +3170,9 @@
         <v>20171002</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C139" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C139" s="6"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
@@ -3021,9 +3181,9 @@
         <v>20171002</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C140" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C140" s="6"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
@@ -3032,9 +3192,9 @@
         <v>20171002</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C141" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C141" s="6"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
@@ -3043,9 +3203,9 @@
         <v>20171002</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C142" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C142" s="6"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
@@ -3054,9 +3214,9 @@
         <v>20171002</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C143" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="C143" s="6"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
@@ -3065,9 +3225,9 @@
         <v>20171002</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C144" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C144" s="6"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
@@ -3076,9 +3236,9 @@
         <v>20171002</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C145" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="C145" s="6"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
@@ -3087,9 +3247,9 @@
         <v>20171002</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C146" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C146" s="6"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
@@ -3098,9 +3258,9 @@
         <v>20171002</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C147" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C147" s="6"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
@@ -3109,9 +3269,9 @@
         <v>20171002</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C148" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C148" s="6"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
@@ -3120,9 +3280,9 @@
         <v>20171002</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C149" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C149" s="6"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
@@ -3131,9 +3291,9 @@
         <v>20171002</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C150" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C150" s="6"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
@@ -3142,9 +3302,9 @@
         <v>20171002</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="C151" s="6"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
@@ -3153,9 +3313,9 @@
         <v>20171002</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C152" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="C152" s="6"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
@@ -3164,9 +3324,9 @@
         <v>20171002</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C153" s="6"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
@@ -3175,9 +3335,9 @@
         <v>20171002</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C154" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="C154" s="6"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
@@ -3186,9 +3346,9 @@
         <v>20171002</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C155" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C155" s="6"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
@@ -3197,9 +3357,9 @@
         <v>20171002</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C156" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="C156" s="6"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
@@ -3208,9 +3368,9 @@
         <v>20171002</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C157" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C157" s="6"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
@@ -3219,9 +3379,9 @@
         <v>20171002</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C158" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="C158" s="6"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
@@ -3230,9 +3390,9 @@
         <v>20171002</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="C159" s="6"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
@@ -3241,9 +3401,9 @@
         <v>20171002</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C160" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="C160" s="6"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
@@ -3252,9 +3412,9 @@
         <v>20171002</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C161" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="C161" s="6"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
@@ -3263,9 +3423,9 @@
         <v>20171002</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C162" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C162" s="6"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
@@ -3274,9 +3434,9 @@
         <v>20171002</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C163" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="C163" s="6"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
@@ -3285,9 +3445,9 @@
         <v>20171002</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C164" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C164" s="6"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
@@ -3296,9 +3456,9 @@
         <v>20171002</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C165" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="C165" s="6"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
@@ -3307,9 +3467,9 @@
         <v>20171002</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C166" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="C166" s="6"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
@@ -3318,9 +3478,9 @@
         <v>20171002</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C167" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="C167" s="6"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
@@ -3329,9 +3489,9 @@
         <v>20171002</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C168" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C168" s="6"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
@@ -3340,9 +3500,9 @@
         <v>20171002</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C169" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C169" s="6"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
@@ -3351,9 +3511,9 @@
         <v>20171002</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C170" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="C170" s="6"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
@@ -3362,9 +3522,9 @@
         <v>20171002</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C171" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="C171" s="6"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
@@ -3373,16 +3533,16 @@
         <v>20171003</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C172" s="2">
+        <v>169</v>
+      </c>
+      <c r="C172" s="6">
         <v>37.25</v>
       </c>
       <c r="D172" s="4">
         <v>43185</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3390,16 +3550,16 @@
         <v>20171003</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C173" s="2">
+        <v>170</v>
+      </c>
+      <c r="C173" s="6">
         <v>37.26</v>
       </c>
       <c r="D173" s="4">
         <v>43185</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3407,9 +3567,9 @@
         <v>20171003</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C174" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="C174" s="6"/>
       <c r="D174" s="4"/>
       <c r="E174" s="1"/>
     </row>
@@ -3418,16 +3578,16 @@
         <v>20171003</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C175" s="2">
+        <v>172</v>
+      </c>
+      <c r="C175" s="6">
         <v>37.24</v>
       </c>
       <c r="D175" s="4">
         <v>43185</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,16 +3595,16 @@
         <v>20171003</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C176" s="2">
+        <v>173</v>
+      </c>
+      <c r="C176" s="6">
         <v>37.24</v>
       </c>
       <c r="D176" s="4">
         <v>43185</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,9 +3612,9 @@
         <v>20171003</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C177" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C177" s="6"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
@@ -3463,16 +3623,16 @@
         <v>20171003</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C178" s="2">
+        <v>175</v>
+      </c>
+      <c r="C178" s="6">
         <v>37.26</v>
       </c>
       <c r="D178" s="4">
         <v>43185</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3480,16 +3640,16 @@
         <v>20171003</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C179" s="2">
+        <v>176</v>
+      </c>
+      <c r="C179" s="6">
         <v>37.19</v>
       </c>
       <c r="D179" s="4">
         <v>43185</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,9 +3657,9 @@
         <v>20171003</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C180" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C180" s="6"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
@@ -3508,16 +3668,16 @@
         <v>20171003</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C181" s="2">
+        <v>178</v>
+      </c>
+      <c r="C181" s="6">
         <v>37.28</v>
       </c>
       <c r="D181" s="4">
         <v>43185</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,9 +3685,9 @@
         <v>20171003</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C182" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C182" s="6"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
@@ -3536,16 +3696,16 @@
         <v>20171003</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C183" s="2">
+        <v>180</v>
+      </c>
+      <c r="C183" s="6">
         <v>37.21</v>
       </c>
       <c r="D183" s="4">
         <v>43185</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -3553,9 +3713,9 @@
         <v>20171003</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C184" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="C184" s="6"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
@@ -3564,16 +3724,16 @@
         <v>20171003</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C185" s="2">
+        <v>182</v>
+      </c>
+      <c r="C185" s="6">
         <v>37.22</v>
       </c>
       <c r="D185" s="4">
         <v>43185</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,16 +3741,16 @@
         <v>20171003</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C186" s="2">
+        <v>183</v>
+      </c>
+      <c r="C186" s="6">
         <v>37.21</v>
       </c>
       <c r="D186" s="4">
         <v>43185</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3598,16 +3758,16 @@
         <v>20171003</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C187" s="2">
+        <v>184</v>
+      </c>
+      <c r="C187" s="6">
         <v>37.24</v>
       </c>
       <c r="D187" s="4">
         <v>43185</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -3615,16 +3775,16 @@
         <v>20171003</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C188" s="2">
+        <v>185</v>
+      </c>
+      <c r="C188" s="6">
         <v>37.14</v>
       </c>
       <c r="D188" s="4">
         <v>43185</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -3632,16 +3792,16 @@
         <v>20171003</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C189" s="2">
+        <v>186</v>
+      </c>
+      <c r="C189" s="6">
         <v>37.369999999999997</v>
       </c>
       <c r="D189" s="4">
         <v>43185</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -3649,9 +3809,9 @@
         <v>20171003</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C190" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C190" s="6"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
@@ -3660,16 +3820,16 @@
         <v>20171003</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C191" s="2">
+        <v>188</v>
+      </c>
+      <c r="C191" s="6">
         <v>37.340000000000003</v>
       </c>
       <c r="D191" s="4">
         <v>43185</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,16 +3837,16 @@
         <v>20171003</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C192" s="2">
+        <v>189</v>
+      </c>
+      <c r="C192" s="6">
         <v>37.299999999999997</v>
       </c>
       <c r="D192" s="4">
         <v>43185</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -3694,16 +3854,16 @@
         <v>20171003</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C193" s="2">
+        <v>190</v>
+      </c>
+      <c r="C193" s="6">
         <v>37.36</v>
       </c>
       <c r="D193" s="4">
         <v>43185</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -3711,16 +3871,16 @@
         <v>20171003</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C194" s="2">
+        <v>191</v>
+      </c>
+      <c r="C194" s="6">
         <v>37.39</v>
       </c>
       <c r="D194" s="4">
         <v>43185</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -3728,16 +3888,16 @@
         <v>20171003</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C195" s="2">
+        <v>192</v>
+      </c>
+      <c r="C195" s="6">
         <v>37.36</v>
       </c>
       <c r="D195" s="4">
         <v>43185</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -3745,9 +3905,9 @@
         <v>20171003</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C196" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C196" s="6"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
@@ -3756,9 +3916,9 @@
         <v>20171003</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C197" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C197" s="6"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
@@ -3767,16 +3927,16 @@
         <v>20171003</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C198" s="2">
+        <v>195</v>
+      </c>
+      <c r="C198" s="6">
         <v>37.409999999999997</v>
       </c>
       <c r="D198" s="4">
         <v>43185</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,16 +3944,16 @@
         <v>20171003</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C199" s="2">
+        <v>196</v>
+      </c>
+      <c r="C199" s="6">
         <v>37.33</v>
       </c>
       <c r="D199" s="4">
         <v>43185</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,16 +3961,16 @@
         <v>20171003</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C200" s="2">
+        <v>197</v>
+      </c>
+      <c r="C200" s="6">
         <v>37.380000000000003</v>
       </c>
       <c r="D200" s="4">
         <v>43185</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,9 +3978,9 @@
         <v>20171003</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C201" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="C201" s="6"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
@@ -3829,9 +3989,9 @@
         <v>20171003</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C202" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C202" s="6"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
@@ -3840,16 +4000,16 @@
         <v>20171003</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C203" s="2">
+        <v>200</v>
+      </c>
+      <c r="C203" s="6">
         <v>37.380000000000003</v>
       </c>
       <c r="D203" s="4">
         <v>43187</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -3857,16 +4017,16 @@
         <v>20171003</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C204" s="2">
+        <v>201</v>
+      </c>
+      <c r="C204" s="6">
         <v>37.64</v>
       </c>
       <c r="D204" s="4">
         <v>43187</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,16 +4034,16 @@
         <v>20171003</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C205" s="2">
+        <v>202</v>
+      </c>
+      <c r="C205" s="6">
         <v>37.43</v>
       </c>
       <c r="D205" s="4">
         <v>43185</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,16 +4051,16 @@
         <v>20171003</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C206" s="2">
+        <v>203</v>
+      </c>
+      <c r="C206" s="6">
         <v>37.6</v>
       </c>
       <c r="D206" s="4">
         <v>43188</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,16 +4068,16 @@
         <v>20171003</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C207" s="2">
+        <v>204</v>
+      </c>
+      <c r="C207" s="6">
         <v>37.61</v>
       </c>
       <c r="D207" s="4">
         <v>43188</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -3925,16 +4085,16 @@
         <v>20171003</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C208" s="2">
+        <v>205</v>
+      </c>
+      <c r="C208" s="6">
         <v>37.729999999999997</v>
       </c>
       <c r="D208" s="4">
         <v>43192</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -3942,16 +4102,16 @@
         <v>20171003</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C209" s="2">
+        <v>206</v>
+      </c>
+      <c r="C209" s="6">
         <v>37.65</v>
       </c>
       <c r="D209" s="4">
         <v>43188</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -3959,16 +4119,16 @@
         <v>20171003</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C210" s="2">
+        <v>207</v>
+      </c>
+      <c r="C210" s="6">
         <v>37.64</v>
       </c>
       <c r="D210" s="4">
         <v>43188</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -3976,16 +4136,16 @@
         <v>20171003</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C211" s="2">
+        <v>208</v>
+      </c>
+      <c r="C211" s="6">
         <v>37.72</v>
       </c>
       <c r="D211" s="4">
         <v>43192</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -3993,16 +4153,16 @@
         <v>20171003</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C212" s="2">
+        <v>209</v>
+      </c>
+      <c r="C212" s="6">
         <v>37.74</v>
       </c>
       <c r="D212" s="4">
         <v>43192</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,16 +4170,16 @@
         <v>20171003</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C213" s="2">
+        <v>210</v>
+      </c>
+      <c r="C213" s="6">
         <v>37.619999999999997</v>
       </c>
       <c r="D213" s="4">
         <v>43188</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4027,16 +4187,16 @@
         <v>20171003</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C214" s="2">
+        <v>211</v>
+      </c>
+      <c r="C214" s="6">
         <v>37.74</v>
       </c>
       <c r="D214" s="4">
         <v>43192</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4044,16 +4204,16 @@
         <v>20171003</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C215" s="2">
+        <v>212</v>
+      </c>
+      <c r="C215" s="6">
         <v>37.700000000000003</v>
       </c>
       <c r="D215" s="4">
         <v>43192</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4061,27 +4221,33 @@
         <v>20171003</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C216" s="2"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="C216" s="6">
+        <v>37.71</v>
+      </c>
+      <c r="D216" s="4">
+        <v>43194</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>20171003</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C217" s="2">
+        <v>214</v>
+      </c>
+      <c r="C217" s="6">
         <v>37.61</v>
       </c>
       <c r="D217" s="4">
         <v>43188</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4089,16 +4255,16 @@
         <v>20171003</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C218" s="2">
+        <v>215</v>
+      </c>
+      <c r="C218" s="6">
         <v>37.65</v>
       </c>
       <c r="D218" s="4">
         <v>43188</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4106,16 +4272,16 @@
         <v>20171003</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C219" s="2">
+        <v>216</v>
+      </c>
+      <c r="C219" s="6">
         <v>37.76</v>
       </c>
       <c r="D219" s="4">
         <v>43192</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4123,16 +4289,16 @@
         <v>20171003</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C220" s="2">
+        <v>217</v>
+      </c>
+      <c r="C220" s="6">
         <v>37.69</v>
       </c>
       <c r="D220" s="5">
         <v>43188</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4140,16 +4306,16 @@
         <v>20171003</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C221" s="2">
+        <v>218</v>
+      </c>
+      <c r="C221" s="6">
         <v>37.700000000000003</v>
       </c>
       <c r="D221" s="4">
         <v>43188</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4157,16 +4323,16 @@
         <v>20171003</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C222" s="2">
+        <v>219</v>
+      </c>
+      <c r="C222" s="6">
         <v>37.729999999999997</v>
       </c>
       <c r="D222" s="4">
         <v>43188</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4174,16 +4340,16 @@
         <v>20171003</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C223" s="2">
+        <v>220</v>
+      </c>
+      <c r="C223" s="6">
         <v>37.74</v>
       </c>
       <c r="D223" s="4">
         <v>43192</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,16 +4357,16 @@
         <v>20171003</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C224" s="2">
+        <v>221</v>
+      </c>
+      <c r="C224" s="6">
         <v>37.770000000000003</v>
       </c>
       <c r="D224" s="4">
         <v>43192</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4208,16 +4374,16 @@
         <v>20171003</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C225" s="2">
+        <v>222</v>
+      </c>
+      <c r="C225" s="6">
         <v>37.799999999999997</v>
       </c>
       <c r="D225" s="4">
         <v>43192</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4225,16 +4391,16 @@
         <v>20171003</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C226" s="2">
+        <v>223</v>
+      </c>
+      <c r="C226" s="6">
         <v>37.729999999999997</v>
       </c>
       <c r="D226" s="4">
         <v>43188</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4242,16 +4408,16 @@
         <v>20171003</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C227" s="2">
+        <v>224</v>
+      </c>
+      <c r="C227" s="6">
         <v>37.64</v>
       </c>
       <c r="D227" s="4">
         <v>43188</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4259,16 +4425,16 @@
         <v>20171003</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C228" s="2">
+        <v>225</v>
+      </c>
+      <c r="C228" s="6">
         <v>37.71</v>
       </c>
       <c r="D228" s="4">
         <v>43188</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4276,16 +4442,16 @@
         <v>20171003</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C229" s="2">
+        <v>226</v>
+      </c>
+      <c r="C229" s="6">
         <v>37.71</v>
       </c>
       <c r="D229" s="4">
         <v>43188</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -4293,16 +4459,16 @@
         <v>20171003</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C230" s="2">
+        <v>217</v>
+      </c>
+      <c r="C230" s="6">
         <v>37.72</v>
       </c>
       <c r="D230" s="4">
         <v>43188</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4310,16 +4476,16 @@
         <v>20171003</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C231" s="2">
+        <v>227</v>
+      </c>
+      <c r="C231" s="6">
         <v>37.67</v>
       </c>
       <c r="D231" s="4">
         <v>43188</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -4327,9 +4493,9 @@
         <v>20171004</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C232" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C232" s="6"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
@@ -4338,9 +4504,9 @@
         <v>20171004</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C233" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C233" s="6"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
@@ -4349,9 +4515,9 @@
         <v>20171004</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C234" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="C234" s="6"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
@@ -4360,9 +4526,9 @@
         <v>20171004</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C235" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C235" s="6"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
@@ -4371,9 +4537,9 @@
         <v>20171004</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C236" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C236" s="6"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
@@ -4382,9 +4548,9 @@
         <v>20171004</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C237" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="C237" s="6"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
@@ -4393,9 +4559,9 @@
         <v>20171004</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C238" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C238" s="6"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
@@ -4404,9 +4570,9 @@
         <v>20171004</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C239" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="C239" s="6"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
@@ -4415,9 +4581,9 @@
         <v>20171004</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C240" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C240" s="6"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
@@ -4426,9 +4592,9 @@
         <v>20171004</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C241" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="C241" s="6"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
@@ -4437,9 +4603,9 @@
         <v>20171004</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C242" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C242" s="6"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
@@ -4448,9 +4614,9 @@
         <v>20171004</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C243" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="C243" s="6"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
@@ -4459,9 +4625,9 @@
         <v>20171004</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C244" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="C244" s="6"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
@@ -4470,9 +4636,9 @@
         <v>20171004</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C245" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="C245" s="6"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
@@ -4481,9 +4647,9 @@
         <v>20171004</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C246" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C246" s="6"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
@@ -4492,9 +4658,9 @@
         <v>20171004</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C247" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="C247" s="6"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
@@ -4503,9 +4669,9 @@
         <v>20171004</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C248" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="C248" s="6"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
@@ -4514,9 +4680,9 @@
         <v>20171004</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C249" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="C249" s="6"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
@@ -4525,9 +4691,9 @@
         <v>20171004</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C250" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="C250" s="6"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
@@ -4536,9 +4702,9 @@
         <v>20171004</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C251" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C251" s="6"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
@@ -4547,9 +4713,9 @@
         <v>20171004</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C252" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="C252" s="6"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
@@ -4558,9 +4724,9 @@
         <v>20171004</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C253" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C253" s="6"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
@@ -4569,9 +4735,9 @@
         <v>20171004</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C254" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C254" s="6"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
@@ -4580,9 +4746,9 @@
         <v>20171004</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C255" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C255" s="6"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
@@ -4591,9 +4757,9 @@
         <v>20171004</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C256" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="C256" s="6"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
@@ -4602,9 +4768,9 @@
         <v>20171004</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C257" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="C257" s="6"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
@@ -4613,9 +4779,9 @@
         <v>20171004</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C258" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="C258" s="6"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
@@ -4624,9 +4790,9 @@
         <v>20171004</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C259" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="C259" s="6"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
@@ -4635,9 +4801,9 @@
         <v>20171004</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C260" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="C260" s="6"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
@@ -4646,9 +4812,9 @@
         <v>20171004</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C261" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="C261" s="6"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
@@ -4657,9 +4823,9 @@
         <v>20171004</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C262" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="C262" s="6"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
@@ -4668,9 +4834,9 @@
         <v>20171004</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C263" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C263" s="6"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
@@ -4679,9 +4845,9 @@
         <v>20171004</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C264" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="C264" s="6"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
@@ -4690,9 +4856,9 @@
         <v>20171004</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C265" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C265" s="6"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
@@ -4701,9 +4867,9 @@
         <v>20171004</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C266" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="C266" s="6"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
@@ -4712,9 +4878,9 @@
         <v>20171004</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C267" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C267" s="6"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
@@ -4723,9 +4889,9 @@
         <v>20171004</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C268" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="C268" s="6"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
@@ -4734,9 +4900,9 @@
         <v>20171004</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C269" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="C269" s="6"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
@@ -4745,9 +4911,9 @@
         <v>20171004</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C270" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="C270" s="6"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
@@ -4756,9 +4922,9 @@
         <v>20171004</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C271" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="C271" s="6"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
@@ -4767,9 +4933,9 @@
         <v>20171004</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C272" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="C272" s="6"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
@@ -4778,9 +4944,9 @@
         <v>20171004</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C273" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C273" s="6"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
@@ -4789,9 +4955,9 @@
         <v>20171004</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C274" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="C274" s="6"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
@@ -4800,9 +4966,9 @@
         <v>20171004</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C275" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="C275" s="6"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
@@ -4811,9 +4977,9 @@
         <v>20171004</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C276" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="C276" s="6"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
@@ -4822,9 +4988,9 @@
         <v>20171004</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C277" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="C277" s="6"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
@@ -4833,9 +4999,9 @@
         <v>20171004</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C278" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="C278" s="6"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
@@ -4844,9 +5010,9 @@
         <v>20171004</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C279" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C279" s="6"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
@@ -4855,9 +5021,9 @@
         <v>20171004</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C280" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="C280" s="6"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
@@ -4866,9 +5032,9 @@
         <v>20171004</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C281" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C281" s="6"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
@@ -4877,9 +5043,9 @@
         <v>20171004</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C282" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="C282" s="6"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
@@ -4888,9 +5054,9 @@
         <v>20171004</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C283" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C283" s="6"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
@@ -4899,16 +5065,16 @@
         <v>20171004</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C284" s="2">
+        <v>280</v>
+      </c>
+      <c r="C284" s="6">
         <v>37.74</v>
       </c>
       <c r="D284" s="4">
         <v>43187</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -4916,16 +5082,16 @@
         <v>20171004</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C285" s="2">
+        <v>281</v>
+      </c>
+      <c r="C285" s="6">
         <v>37.74</v>
       </c>
       <c r="D285" s="4">
         <v>43187</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -4933,16 +5099,16 @@
         <v>20171004</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C286" s="2">
+        <v>282</v>
+      </c>
+      <c r="C286" s="6">
         <v>37.79</v>
       </c>
       <c r="D286" s="4">
         <v>43187</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -4950,16 +5116,16 @@
         <v>20171004</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C287" s="2">
+        <v>283</v>
+      </c>
+      <c r="C287" s="6">
         <v>37.729999999999997</v>
       </c>
       <c r="D287" s="4">
         <v>43187</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -4967,16 +5133,16 @@
         <v>20171004</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C288" s="2">
+        <v>284</v>
+      </c>
+      <c r="C288" s="6">
         <v>38.119999999999997</v>
       </c>
       <c r="D288" s="4">
         <v>43192</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -4984,16 +5150,16 @@
         <v>20171004</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C289" s="2">
+        <v>285</v>
+      </c>
+      <c r="C289" s="6">
         <v>37.729999999999997</v>
       </c>
       <c r="D289" s="4">
         <v>43187</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -5001,16 +5167,16 @@
         <v>20171004</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C290" s="2">
+        <v>286</v>
+      </c>
+      <c r="C290" s="6">
         <v>37.75</v>
       </c>
       <c r="D290" s="4">
         <v>43187</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -5018,16 +5184,16 @@
         <v>20171004</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C291" s="2">
+        <v>287</v>
+      </c>
+      <c r="C291" s="6">
         <v>37.75</v>
       </c>
       <c r="D291" s="4">
         <v>43187</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -5035,16 +5201,16 @@
         <v>20171004</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C292" s="2">
+        <v>288</v>
+      </c>
+      <c r="C292" s="6">
         <v>37.78</v>
       </c>
       <c r="D292" s="4">
         <v>43187</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -5052,16 +5218,16 @@
         <v>20171004</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C293" s="2">
+        <v>289</v>
+      </c>
+      <c r="C293" s="6">
         <v>38.1</v>
       </c>
       <c r="D293" s="4">
         <v>43192</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -5069,16 +5235,16 @@
         <v>20171004</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C294" s="2">
+        <v>290</v>
+      </c>
+      <c r="C294" s="6">
         <v>37.74</v>
       </c>
       <c r="D294" s="4">
         <v>43187</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -5086,16 +5252,16 @@
         <v>20171004</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C295" s="2">
+        <v>291</v>
+      </c>
+      <c r="C295" s="6">
         <v>37.799999999999997</v>
       </c>
       <c r="D295" s="4">
         <v>43187</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -5103,16 +5269,16 @@
         <v>20171004</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C296" s="2">
+        <v>292</v>
+      </c>
+      <c r="C296" s="6">
         <v>38.090000000000003</v>
       </c>
       <c r="D296" s="4">
         <v>43192</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -5120,16 +5286,16 @@
         <v>20171004</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C297" s="2">
+        <v>293</v>
+      </c>
+      <c r="C297" s="6">
         <v>37.75</v>
       </c>
       <c r="D297" s="4">
         <v>43187</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -5137,16 +5303,16 @@
         <v>20171004</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C298" s="2">
+        <v>294</v>
+      </c>
+      <c r="C298" s="6">
         <v>37.700000000000003</v>
       </c>
       <c r="D298" s="4">
         <v>43187</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -5154,16 +5320,16 @@
         <v>20171004</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C299" s="2">
+        <v>295</v>
+      </c>
+      <c r="C299" s="6">
         <v>37.83</v>
       </c>
       <c r="D299" s="4">
         <v>43192</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -5171,16 +5337,16 @@
         <v>20171004</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C300" s="2">
+        <v>296</v>
+      </c>
+      <c r="C300" s="6">
         <v>37.61</v>
       </c>
       <c r="D300" s="4">
         <v>43187</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -5188,16 +5354,16 @@
         <v>20171004</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C301" s="2">
+        <v>297</v>
+      </c>
+      <c r="C301" s="6">
         <v>38.020000000000003</v>
       </c>
       <c r="D301" s="4">
         <v>43192</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -5205,16 +5371,16 @@
         <v>20171004</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C302" s="2">
+        <v>298</v>
+      </c>
+      <c r="C302" s="6">
         <v>37.979999999999997</v>
       </c>
       <c r="D302" s="4">
         <v>43192</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -5222,16 +5388,16 @@
         <v>20171004</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C303" s="2">
+        <v>299</v>
+      </c>
+      <c r="C303" s="6">
         <v>37.659999999999997</v>
       </c>
       <c r="D303" s="4">
         <v>43187</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -5239,16 +5405,16 @@
         <v>20171004</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C304" s="2">
+        <v>300</v>
+      </c>
+      <c r="C304" s="6">
         <v>37.64</v>
       </c>
       <c r="D304" s="4">
         <v>43187</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -5256,16 +5422,16 @@
         <v>20171004</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C305" s="2">
+        <v>301</v>
+      </c>
+      <c r="C305" s="6">
         <v>37.64</v>
       </c>
       <c r="D305" s="4">
         <v>43187</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -5273,16 +5439,16 @@
         <v>20171004</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C306" s="2">
+        <v>302</v>
+      </c>
+      <c r="C306" s="6">
         <v>37.630000000000003</v>
       </c>
       <c r="D306" s="4">
         <v>43187</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -5290,16 +5456,16 @@
         <v>20171004</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C307" s="2">
+        <v>303</v>
+      </c>
+      <c r="C307" s="6">
         <v>37.630000000000003</v>
       </c>
       <c r="D307" s="4">
         <v>43187</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -5307,16 +5473,16 @@
         <v>20171004</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C308" s="2">
+        <v>304</v>
+      </c>
+      <c r="C308" s="6">
         <v>37.68</v>
       </c>
       <c r="D308" s="4">
         <v>43187</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -5324,16 +5490,16 @@
         <v>20171004</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C309" s="2">
+        <v>305</v>
+      </c>
+      <c r="C309" s="6">
         <v>37.950000000000003</v>
       </c>
       <c r="D309" s="4">
         <v>43192</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -5341,9 +5507,9 @@
         <v>20171002</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C310" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="C310" s="6"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
@@ -5352,9 +5518,9 @@
         <v>20171002</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C311" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C311" s="6"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
@@ -5363,9 +5529,9 @@
         <v>20171001</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C312" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C312" s="6"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
@@ -5374,9 +5540,9 @@
         <v>20171001</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C313" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C313" s="6"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
@@ -5385,9 +5551,9 @@
         <v>20171001</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C314" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="C314" s="6"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
@@ -5396,9 +5562,9 @@
         <v>20171001</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C315" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="C315" s="6"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
@@ -5407,9 +5573,9 @@
         <v>20171020</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C316" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C316" s="6"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
@@ -5418,9 +5584,9 @@
         <v>20171020</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C317" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C317" s="6"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
@@ -5429,9 +5595,9 @@
         <v>20171020</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C318" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C318" s="6"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
@@ -5440,9 +5606,9 @@
         <v>20171020</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C319" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C319" s="6"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
@@ -5451,9 +5617,9 @@
         <v>20171020</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C320" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="C320" s="6"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
@@ -5462,9 +5628,9 @@
         <v>20171020</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C321" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C321" s="6"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
@@ -5473,9 +5639,9 @@
         <v>20171020</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C322" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C322" s="6"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
@@ -5484,9 +5650,9 @@
         <v>20171020</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C323" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="C323" s="6"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
@@ -5495,9 +5661,9 @@
         <v>20171020</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C324" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C324" s="6"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
@@ -5506,9 +5672,9 @@
         <v>20171020</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C325" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="C325" s="6"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
@@ -5517,9 +5683,9 @@
         <v>20171020</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C326" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C326" s="6"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
@@ -5528,9 +5694,9 @@
         <v>20171020</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C327" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C327" s="6"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
@@ -5539,9 +5705,9 @@
         <v>20171020</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C328" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="C328" s="6"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
@@ -5550,9 +5716,9 @@
         <v>20171020</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C329" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C329" s="6"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
@@ -5561,9 +5727,9 @@
         <v>20171020</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C330" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C330" s="6"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
@@ -5572,9 +5738,9 @@
         <v>20171020</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C331" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C331" s="6"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
@@ -5583,9 +5749,9 @@
         <v>20171020</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C332" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="C332" s="6"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
@@ -5594,9 +5760,9 @@
         <v>20171020</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C333" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="C333" s="6"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
@@ -5605,9 +5771,9 @@
         <v>20171020</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C334" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="C334" s="6"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
@@ -5616,9 +5782,9 @@
         <v>20171020</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C335" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C335" s="6"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
@@ -5627,9 +5793,9 @@
         <v>20171020</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C336" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="C336" s="6"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
@@ -5638,9 +5804,9 @@
         <v>20171020</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C337" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="C337" s="6"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
@@ -5649,9 +5815,9 @@
         <v>20171020</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C338" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="C338" s="6"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
@@ -5660,9 +5826,9 @@
         <v>20171020</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C339" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="C339" s="6"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
@@ -5671,9 +5837,9 @@
         <v>20171020</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C340" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C340" s="6"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
@@ -5682,9 +5848,9 @@
         <v>20171020</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C341" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C341" s="6"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>

--- a/Data/BermudaSalinity.xlsx
+++ b/Data/BermudaSalinity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="344">
   <si>
     <t>Fragment.ID</t>
   </si>
@@ -1044,6 +1044,18 @@
   </si>
   <si>
     <t>start 2c-Dark</t>
+  </si>
+  <si>
+    <t>Start 11b-Light</t>
+  </si>
+  <si>
+    <t>Start 11c-Light</t>
+  </si>
+  <si>
+    <t>Start 11b-Dark</t>
+  </si>
+  <si>
+    <t>Start 11c-Dark</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1112,6 +1124,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,9 +2239,15 @@
       <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="C53" s="6">
+        <v>37.92</v>
+      </c>
+      <c r="D53" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -2237,9 +2256,15 @@
       <c r="B54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="C54" s="6">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="D54" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2248,9 +2273,15 @@
       <c r="B55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="C55" s="6">
+        <v>37.94</v>
+      </c>
+      <c r="D55" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -2281,9 +2312,15 @@
       <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="C58" s="6">
+        <v>38</v>
+      </c>
+      <c r="D58" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -2292,9 +2329,15 @@
       <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="C59" s="6">
+        <v>37.93</v>
+      </c>
+      <c r="D59" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -2303,9 +2346,15 @@
       <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="C60" s="8">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="D60" s="9">
+        <v>43199</v>
+      </c>
+      <c r="E60" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -2314,9 +2363,15 @@
       <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="C61" s="6">
+        <v>37.96</v>
+      </c>
+      <c r="D61" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2325,9 +2380,15 @@
       <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="C62" s="6">
+        <v>37.97</v>
+      </c>
+      <c r="D62" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -2336,9 +2397,15 @@
       <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="C63" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="D63" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -2347,9 +2414,15 @@
       <c r="B64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="C64" s="6">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="D64" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -2358,9 +2431,15 @@
       <c r="B65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="C65" s="6">
+        <v>37.96</v>
+      </c>
+      <c r="D65" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -2369,9 +2448,15 @@
       <c r="B66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="C66" s="6">
+        <v>38.06</v>
+      </c>
+      <c r="D66" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2402,9 +2487,15 @@
       <c r="B69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="C69" s="6">
+        <v>38.01</v>
+      </c>
+      <c r="D69" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -3811,9 +3902,15 @@
       <c r="B190" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C190" s="6"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
+      <c r="C190" s="6">
+        <v>37.99</v>
+      </c>
+      <c r="D190" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
@@ -4561,9 +4658,15 @@
       <c r="B238" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C238" s="6"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
+      <c r="C238" s="6">
+        <v>38.07</v>
+      </c>
+      <c r="D238" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
@@ -4825,9 +4928,15 @@
       <c r="B262" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C262" s="6"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
+      <c r="C262" s="6">
+        <v>38.22</v>
+      </c>
+      <c r="D262" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
@@ -4969,7 +5078,7 @@
         <v>271</v>
       </c>
       <c r="C275" s="6"/>
-      <c r="D275" s="1"/>
+      <c r="D275" s="4"/>
       <c r="E275" s="1"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5012,9 +5121,15 @@
       <c r="B279" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C279" s="6"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
+      <c r="C279" s="6">
+        <v>38.07</v>
+      </c>
+      <c r="D279" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
@@ -5023,9 +5138,15 @@
       <c r="B280" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C280" s="6"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
+      <c r="C280" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="D280" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
@@ -5056,9 +5177,15 @@
       <c r="B283" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C283" s="6"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
+      <c r="C283" s="6">
+        <v>38.01</v>
+      </c>
+      <c r="D283" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
@@ -5584,7 +5711,7 @@
         <v>20171020</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="C317" s="6"/>
       <c r="D317" s="1"/>
@@ -5595,7 +5722,7 @@
         <v>20171020</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="1"/>
@@ -5685,9 +5812,15 @@
       <c r="B326" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C326" s="6"/>
-      <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
+      <c r="C326" s="6">
+        <v>39.26</v>
+      </c>
+      <c r="D326" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
@@ -5727,18 +5860,24 @@
         <v>20171020</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C330" s="6"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
+        <v>342</v>
+      </c>
+      <c r="C330" s="6">
+        <v>39.49</v>
+      </c>
+      <c r="D330" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>20171020</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="1"/>

--- a/Data/BermudaSalinity.xlsx
+++ b/Data/BermudaSalinity.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labX_data\Titrator\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyssa\Desktop\Repos\Titrator\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="12930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8900" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="347">
   <si>
     <t>Fragment.ID</t>
   </si>
@@ -1046,10 +1052,19 @@
     <t>start 2c-Dark</t>
   </si>
   <si>
-    <t>Start 11b-Light</t>
-  </si>
-  <si>
-    <t>Start 11c-Light</t>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>RB2-7-Dark</t>
+  </si>
+  <si>
+    <t>Start 6a-Light Rep</t>
+  </si>
+  <si>
+    <t>Start 6b-Light Rep</t>
+  </si>
+  <si>
+    <t>RB4-6-Light Rep</t>
   </si>
   <si>
     <t>Start 11b-Dark</t>
@@ -1062,7 +1077,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,16 +1096,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1097,34 +1141,74 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1405,29 +1489,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E341"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="B332" workbookViewId="0">
+      <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1436,15 +1521,18 @@
       <c r="E1" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>20171001</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>37.93</v>
       </c>
       <c r="D2" s="4">
@@ -1453,15 +1541,18 @@
       <c r="E2" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="20">
+        <v>2321.59620193914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>20171001</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>37.79</v>
       </c>
       <c r="D3" s="4">
@@ -1470,15 +1561,18 @@
       <c r="E3" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="20">
+        <v>2359.5095007447599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>20171001</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>37.74</v>
       </c>
       <c r="D4" s="4">
@@ -1487,15 +1581,18 @@
       <c r="E4" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="20">
+        <v>2325.5242886014898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>20171001</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>37.79</v>
       </c>
       <c r="D5" s="4">
@@ -1504,15 +1601,18 @@
       <c r="E5" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="20">
+        <v>2314.64261004643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>20171001</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>37.81</v>
       </c>
       <c r="D6" s="4">
@@ -1521,15 +1621,18 @@
       <c r="E6" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="20">
+        <v>2309.2533672218301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>20171001</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>37.81</v>
       </c>
       <c r="D7" s="4">
@@ -1538,48 +1641,54 @@
       <c r="E7" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="20">
+        <v>2302.2495531049599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>20171001</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>20171001</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>20171001</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>20171001</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>37.81</v>
       </c>
       <c r="D11" s="4">
@@ -1588,26 +1697,30 @@
       <c r="E11" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="20">
+        <v>2338.9125800983902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>20171001</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>20171001</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>37.799999999999997</v>
       </c>
       <c r="D13" s="4">
@@ -1616,15 +1729,18 @@
       <c r="E13" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="20">
+        <v>2323.0305688788699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>20171001</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>37.770000000000003</v>
       </c>
       <c r="D14" s="4">
@@ -1633,15 +1749,18 @@
       <c r="E14" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="20">
+        <v>2318.1412696450102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>20171001</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>37.79</v>
       </c>
       <c r="D15" s="4">
@@ -1650,15 +1769,18 @@
       <c r="E15" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="20">
+        <v>2319.2815937846999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>20171001</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>37.79</v>
       </c>
       <c r="D16" s="4">
@@ -1667,15 +1789,18 @@
       <c r="E16" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="20">
+        <v>2326.1458742485302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>20171001</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>37.799999999999997</v>
       </c>
       <c r="D17" s="4">
@@ -1684,15 +1809,18 @@
       <c r="E17" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="20">
+        <v>2329.3311426153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>20171001</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>37.83</v>
       </c>
       <c r="D18" s="4">
@@ -1701,15 +1829,18 @@
       <c r="E18" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="20">
+        <v>2323.5901222613302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>20171001</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>38.03</v>
       </c>
       <c r="D19" s="4">
@@ -1718,15 +1849,18 @@
       <c r="E19" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="20">
+        <v>2341.1286838299002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>20171001</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>38.08</v>
       </c>
       <c r="D20" s="4">
@@ -1735,15 +1869,18 @@
       <c r="E20" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="20">
+        <v>2330.9286842142001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20171001</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>38.04</v>
       </c>
       <c r="D21" s="4">
@@ -1752,26 +1889,30 @@
       <c r="E21" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="20">
+        <v>2335.32598387608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20171001</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>20171001</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>38.01</v>
       </c>
       <c r="D23" s="4">
@@ -1780,15 +1921,18 @@
       <c r="E23" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="20">
+        <v>2338.6386171488898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>20171001</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>38.020000000000003</v>
       </c>
       <c r="D24" s="4">
@@ -1797,15 +1941,18 @@
       <c r="E24" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="20">
+        <v>2332.6241109811099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>20171001</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>38.04</v>
       </c>
       <c r="D25" s="4">
@@ -1814,15 +1961,18 @@
       <c r="E25" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="20">
+        <v>2322.3525038881899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>20171001</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>38.020000000000003</v>
       </c>
       <c r="D26" s="4">
@@ -1831,15 +1981,18 @@
       <c r="E26" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="20">
+        <v>2339.6696076683902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>20171001</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>38</v>
       </c>
       <c r="D27" s="4">
@@ -1848,26 +2001,30 @@
       <c r="E27" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="20">
+        <v>2336.8221995406898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>20171001</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="4"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>20171001</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>38.090000000000003</v>
       </c>
       <c r="D29" s="4">
@@ -1876,37 +2033,42 @@
       <c r="E29" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="20">
+        <v>2338.1724846219199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>20171001</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>20171001</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>20171001</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>38.049999999999997</v>
       </c>
       <c r="D32" s="4">
@@ -1915,15 +2077,18 @@
       <c r="E32" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="20">
+        <v>2337.2946170462401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>20171001</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>38.049999999999997</v>
       </c>
       <c r="D33" s="4">
@@ -1932,15 +2097,18 @@
       <c r="E33" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="20">
+        <v>2337.1721200861698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>20171001</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>38.07</v>
       </c>
       <c r="D34" s="4">
@@ -1949,15 +2117,18 @@
       <c r="E34" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="20">
+        <v>2337.6930002781801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>20171001</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>38.049999999999997</v>
       </c>
       <c r="D35" s="4">
@@ -1966,15 +2137,18 @@
       <c r="E35" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="20">
+        <v>2335.4877022783598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>20171001</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>37.950000000000003</v>
       </c>
       <c r="D36" s="4">
@@ -1983,15 +2157,18 @@
       <c r="E36" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="20">
+        <v>2335.4836894208802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>20171001</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>37.950000000000003</v>
       </c>
       <c r="D37" s="4">
@@ -2000,15 +2177,18 @@
       <c r="E37" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="20">
+        <v>2337.9223078844002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>20171001</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>37.94</v>
       </c>
       <c r="D38" s="4">
@@ -2017,26 +2197,30 @@
       <c r="E38" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="20">
+        <v>2334.5558188482601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>20171001</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>20171001</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>37.96</v>
       </c>
       <c r="D40" s="4">
@@ -2045,15 +2229,18 @@
       <c r="E40" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="20">
+        <v>2316.0121931010699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>20171001</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>37.909999999999997</v>
       </c>
       <c r="D41" s="4">
@@ -2062,26 +2249,30 @@
       <c r="E41" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="20">
+        <v>2231.4832141572601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>20171001</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>20171001</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>37.92</v>
       </c>
       <c r="D43" s="4">
@@ -2090,15 +2281,18 @@
       <c r="E43" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="20">
+        <v>2329.8053511213102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>20171001</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>37.96</v>
       </c>
       <c r="D44" s="4">
@@ -2107,26 +2301,30 @@
       <c r="E44" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="20">
+        <v>2319.9427249825699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>20171001</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>20171001</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>37.909999999999997</v>
       </c>
       <c r="D46" s="4">
@@ -2135,15 +2333,18 @@
       <c r="E46" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="20">
+        <v>2317.4950769441798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>20171001</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>37.94</v>
       </c>
       <c r="D47" s="4">
@@ -2152,26 +2353,30 @@
       <c r="E47" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="20">
+        <v>2313.7888774676198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>20171001</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="6"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>20171001</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>37.96</v>
       </c>
       <c r="D49" s="4">
@@ -2180,15 +2385,18 @@
       <c r="E49" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="20">
+        <v>2312.5805136354602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>20171001</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>37.93</v>
       </c>
       <c r="D50" s="4">
@@ -2197,15 +2405,18 @@
       <c r="E50" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="20">
+        <v>2320.40197831654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>20171001</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>37.96</v>
       </c>
       <c r="D51" s="4">
@@ -2214,15 +2425,18 @@
       <c r="E51" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="20">
+        <v>2325.1378646277399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>20171001</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>37.93</v>
       </c>
       <c r="D52" s="4">
@@ -2231,88 +2445,84 @@
       <c r="E52" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="20">
+        <v>2330.43993030405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>20171001</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="6">
-        <v>37.92</v>
-      </c>
-      <c r="D53" s="4">
-        <v>43199</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="20">
+        <v>2329.4225730798598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>20171001</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="6">
-        <v>37.979999999999997</v>
-      </c>
-      <c r="D54" s="4">
-        <v>43199</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="5"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="20">
+        <v>2327.3329170596398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>20171001</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="6">
-        <v>37.94</v>
-      </c>
-      <c r="D55" s="4">
-        <v>43199</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="5"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="20">
+        <v>2316.5193206085401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>20171001</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="6"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>20171001</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="6"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>20171001</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>38</v>
       </c>
       <c r="D58" s="4">
@@ -2321,15 +2531,18 @@
       <c r="E58" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="20">
+        <v>2322.5069452125799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>20171001</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>37.93</v>
       </c>
       <c r="D59" s="4">
@@ -2338,32 +2551,38 @@
       <c r="E59" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="20">
+        <v>2328.0343629252202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>20171001</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>37.909999999999997</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="12">
         <v>43199</v>
       </c>
       <c r="E60" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="20">
+        <v>2329.4361702272399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>20171001</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>37.96</v>
       </c>
       <c r="D61" s="4">
@@ -2372,15 +2591,18 @@
       <c r="E61" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="20">
+        <v>2330.55039360816</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>20171001</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>37.97</v>
       </c>
       <c r="D62" s="4">
@@ -2389,15 +2611,18 @@
       <c r="E62" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="20">
+        <v>2331.18108682198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>20171001</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>37.9</v>
       </c>
       <c r="D63" s="4">
@@ -2406,15 +2631,18 @@
       <c r="E63" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="20">
+        <v>2326.2394502006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>20171001</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>37.979999999999997</v>
       </c>
       <c r="D64" s="4">
@@ -2423,15 +2651,18 @@
       <c r="E64" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="20">
+        <v>2335.9528272580601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>20171001</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>37.96</v>
       </c>
       <c r="D65" s="4">
@@ -2440,15 +2671,18 @@
       <c r="E65" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="20">
+        <v>2323.5906278518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>20171001</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>38.06</v>
       </c>
       <c r="D66" s="4">
@@ -2457,37 +2691,42 @@
       <c r="E66" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="20">
+        <v>2322.8260606876702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>20171001</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="6"/>
+      <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>20171001</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="6"/>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>20171001</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>38.01</v>
       </c>
       <c r="D69" s="4">
@@ -2496,1137 +2735,1243 @@
       <c r="E69" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="20">
+        <v>2323.5321022663002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>20171002</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="6"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>20171002</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>20171002</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="6"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>20171002</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="6"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>20171002</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="6"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>20171002</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>20171002</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="6"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>20171002</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="6"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>20171002</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="6"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>20171002</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="6"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>20171002</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="6"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>20171002</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="6"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>20171002</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="6"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>20171002</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="6"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>20171002</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>20171002</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="6"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>20171002</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>20171002</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="6"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>20171002</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="6"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="21"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>20171002</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>20171002</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="21"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>20171002</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="21"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>20171002</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="21"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>20171002</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>20171002</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="21"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>20171002</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="6"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="21"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>20171002</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="6"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="21"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>20171002</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>20171002</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="6"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="21"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>20171002</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="6"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="21"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>20171002</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="6"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="21"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>20171002</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="6"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>20171002</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="6"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="21"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>20171002</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="6"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>20171002</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="6"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>20171002</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="6"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>20171002</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="6"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>20171002</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="6"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>20171002</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="6"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>20171002</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="6"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>20171002</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="6"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="21"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>20171002</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="6"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="21"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>20171002</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="6"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="21"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>20171002</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="6"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="21"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>20171002</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="6"/>
+      <c r="C114" s="5"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="21"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>20171002</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="6"/>
+      <c r="C115" s="5"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="21"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>20171002</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="6"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="21"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>20171002</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="6"/>
+      <c r="C117" s="5"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="21"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>20171002</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="6"/>
+      <c r="C118" s="5"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="21"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>20171002</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="6"/>
+      <c r="C119" s="5"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="21"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>20171002</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="6"/>
+      <c r="C120" s="5"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="21"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>20171002</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="6"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="21"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>20171002</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="6"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="21"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>20171002</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="6"/>
+      <c r="C123" s="5"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="21"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>20171002</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="6"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="21"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>20171002</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="6"/>
+      <c r="C125" s="5"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="21"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>20171002</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="6"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="21"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>20171002</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="6"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="21"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>20171002</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="6"/>
+      <c r="C128" s="5"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="21"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>20171002</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="6"/>
+      <c r="C129" s="5"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="21"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>20171002</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="6"/>
+      <c r="C130" s="5"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="21"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>20171002</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="6"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="21"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>20171002</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="6"/>
+      <c r="C132" s="5"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="21"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>20171002</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="6"/>
+      <c r="C133" s="5"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="21"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>20171002</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="6"/>
+      <c r="C134" s="5"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="21"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>20171002</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="6"/>
+      <c r="C135" s="5"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="21"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>20171002</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="6"/>
+      <c r="C136" s="5"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="21"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>20171002</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="6"/>
+      <c r="C137" s="5"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="21"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>20171002</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C138" s="6"/>
+      <c r="C138" s="5"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="21"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>20171002</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="6"/>
+      <c r="C139" s="5"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="21"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>20171002</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="6"/>
+      <c r="C140" s="5"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="21"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>20171002</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="6"/>
+      <c r="C141" s="5"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="21"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>20171002</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C142" s="6"/>
+      <c r="C142" s="5"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="21"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>20171002</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="6"/>
+      <c r="C143" s="5"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="21"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>20171002</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C144" s="6"/>
+      <c r="C144" s="5"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="21"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>20171002</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C145" s="6"/>
+      <c r="C145" s="5"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="21"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>20171002</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="6"/>
+      <c r="C146" s="5"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="21"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>20171002</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="6"/>
+      <c r="C147" s="5"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="21"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>20171002</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C148" s="6"/>
+      <c r="C148" s="5"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="21"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>20171002</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="6"/>
+      <c r="C149" s="5"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="21"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>20171002</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C150" s="6"/>
+      <c r="C150" s="5"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="21"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>20171002</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C151" s="6"/>
+      <c r="C151" s="5"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="21"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>20171002</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C152" s="6"/>
+      <c r="C152" s="5"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="21"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>20171002</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C153" s="6"/>
+      <c r="C153" s="5"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="21"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>20171002</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C154" s="6"/>
+      <c r="C154" s="5"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="21"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>20171002</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C155" s="6"/>
+      <c r="C155" s="5"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="21"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>20171002</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C156" s="6"/>
+      <c r="C156" s="5"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="21"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>20171002</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C157" s="6"/>
+      <c r="C157" s="5"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="21"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>20171002</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C158" s="6"/>
+      <c r="C158" s="5"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="21"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>20171002</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C159" s="6"/>
+      <c r="C159" s="5"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="21"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>20171002</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C160" s="6"/>
+      <c r="C160" s="5"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="21"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>20171002</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C161" s="6"/>
+      <c r="C161" s="5"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="21"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>20171002</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C162" s="6"/>
+      <c r="C162" s="5"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="21"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>20171002</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C163" s="6"/>
+      <c r="C163" s="5"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="21"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>20171002</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C164" s="6"/>
+      <c r="C164" s="5"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="21"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>20171002</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C165" s="6"/>
+      <c r="C165" s="5"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="21"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>20171002</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C166" s="6"/>
+      <c r="C166" s="5"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="21"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>20171002</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C167" s="6"/>
+      <c r="C167" s="5"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="21"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>20171002</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C168" s="6"/>
+      <c r="C168" s="5"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="21"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>20171002</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C169" s="6"/>
+      <c r="C169" s="5"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="21"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>20171002</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="6"/>
+      <c r="C170" s="5"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="21"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>20171002</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="6"/>
+      <c r="C171" s="5"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="23"/>
+      <c r="G171" s="15"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>20171003</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="6">
+      <c r="C172" s="5">
         <v>37.25</v>
       </c>
       <c r="D172" s="4">
@@ -3635,16 +3980,20 @@
       <c r="E172" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="24">
+        <v>2316.2933720000001</v>
+      </c>
+      <c r="G172" s="16"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
-        <v>20171003</v>
+        <v>20171004</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C173" s="6">
-        <v>37.26</v>
+        <v>342</v>
+      </c>
+      <c r="C173" s="5">
+        <v>38.25</v>
       </c>
       <c r="D173" s="4">
         <v>43185</v>
@@ -3652,89 +4001,119 @@
       <c r="E173" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="25">
+        <v>2317.9032710000001</v>
+      </c>
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>20171003</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="C174" s="5">
+        <v>37.26</v>
+      </c>
+      <c r="D174" s="4">
+        <v>43185</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F174" s="24">
+        <v>2323.9751649999998</v>
+      </c>
+      <c r="G174" s="16"/>
+      <c r="H174" s="14"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
-        <v>20171003</v>
+        <v>20171004</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C175" s="6">
-        <v>37.24</v>
+        <v>343</v>
+      </c>
+      <c r="C175" s="5">
+        <v>38.26</v>
       </c>
       <c r="D175" s="4">
-        <v>43185</v>
+        <v>43186</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="25">
+        <v>2320.3337740000002</v>
+      </c>
+      <c r="G175" s="16"/>
+      <c r="H175" s="14"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>20171003</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C176" s="6">
-        <v>37.24</v>
-      </c>
-      <c r="D176" s="4">
-        <v>43185</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="17"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>20171003</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C177" s="6"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="C177" s="5">
+        <v>37.24</v>
+      </c>
+      <c r="D177" s="4">
+        <v>43185</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" s="24">
+        <v>2308.0528429999999</v>
+      </c>
+      <c r="G177" s="16"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
-        <v>20171003</v>
+        <v>20171004</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C178" s="6">
-        <v>37.26</v>
+        <v>344</v>
+      </c>
+      <c r="C178" s="5">
+        <v>38.24</v>
       </c>
       <c r="D178" s="4">
-        <v>43185</v>
+        <v>43186</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="25">
+        <v>2305.5969799999998</v>
+      </c>
+      <c r="G178" s="16"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>20171003</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C179" s="6">
-        <v>37.19</v>
+        <v>173</v>
+      </c>
+      <c r="C179" s="5">
+        <v>37.24</v>
       </c>
       <c r="D179" s="4">
         <v>43185</v>
@@ -3742,27 +4121,33 @@
       <c r="E179" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="24">
+        <v>2308.4223539999998</v>
+      </c>
+      <c r="G179" s="17"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>20171003</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C180" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="C180" s="5"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="23"/>
+      <c r="G180" s="17"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>20171003</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C181" s="6">
-        <v>37.28</v>
+        <v>175</v>
+      </c>
+      <c r="C181" s="5">
+        <v>37.26</v>
       </c>
       <c r="D181" s="4">
         <v>43185</v>
@@ -3770,27 +4155,41 @@
       <c r="E181" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="24">
+        <v>2298.5757279999998</v>
+      </c>
+      <c r="G181" s="16"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
-        <v>20171003</v>
+        <v>20171004</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C182" s="6"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="C182" s="5">
+        <v>38.26</v>
+      </c>
+      <c r="D182" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F182" s="25">
+        <v>2297.3996969999998</v>
+      </c>
+      <c r="G182" s="16"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>20171003</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" s="6">
-        <v>37.21</v>
+        <v>176</v>
+      </c>
+      <c r="C183" s="5">
+        <v>37.19</v>
       </c>
       <c r="D183" s="4">
         <v>43185</v>
@@ -3798,27 +4197,33 @@
       <c r="E183" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="24">
+        <v>2311.6570839999999</v>
+      </c>
+      <c r="G183" s="17"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>20171003</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C184" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="C184" s="5"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="23"/>
+      <c r="G184" s="17"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>20171003</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C185" s="6">
-        <v>37.22</v>
+        <v>178</v>
+      </c>
+      <c r="C185" s="5">
+        <v>37.28</v>
       </c>
       <c r="D185" s="4">
         <v>43185</v>
@@ -3826,33 +4231,33 @@
       <c r="E185" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="24">
+        <v>2304.6053710000001</v>
+      </c>
+      <c r="G185" s="17"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>20171003</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C186" s="6">
-        <v>37.21</v>
-      </c>
-      <c r="D186" s="4">
-        <v>43185</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="23"/>
+      <c r="G186" s="17"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>20171003</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C187" s="6">
-        <v>37.24</v>
+        <v>180</v>
+      </c>
+      <c r="C187" s="5">
+        <v>37.21</v>
       </c>
       <c r="D187" s="4">
         <v>43185</v>
@@ -3860,33 +4265,33 @@
       <c r="E187" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="24">
+        <v>2292.1517520000002</v>
+      </c>
+      <c r="G187" s="17"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>20171003</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C188" s="6">
-        <v>37.14</v>
-      </c>
-      <c r="D188" s="4">
-        <v>43185</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="23"/>
+      <c r="G188" s="17"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>20171003</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C189" s="6">
-        <v>37.369999999999997</v>
+        <v>182</v>
+      </c>
+      <c r="C189" s="5">
+        <v>37.22</v>
       </c>
       <c r="D189" s="4">
         <v>43185</v>
@@ -3894,50 +4299,62 @@
       <c r="E189" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="24">
+        <v>2328.5128800000002</v>
+      </c>
+      <c r="G189" s="17"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>20171003</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C190" s="6">
-        <v>37.99</v>
+        <v>183</v>
+      </c>
+      <c r="C190" s="5">
+        <v>37.21</v>
       </c>
       <c r="D190" s="4">
-        <v>43199</v>
+        <v>43185</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="24">
+        <v>2312.3153630000002</v>
+      </c>
+      <c r="G190" s="16"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
-        <v>20171003</v>
+        <v>20171004</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C191" s="6">
-        <v>37.340000000000003</v>
+        <v>183</v>
+      </c>
+      <c r="C191" s="5">
+        <v>38.21</v>
       </c>
       <c r="D191" s="4">
-        <v>43185</v>
+        <v>43186</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="25">
+        <v>2308.181877</v>
+      </c>
+      <c r="G191" s="16"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>20171003</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C192" s="6">
-        <v>37.299999999999997</v>
+        <v>184</v>
+      </c>
+      <c r="C192" s="5">
+        <v>37.24</v>
       </c>
       <c r="D192" s="4">
         <v>43185</v>
@@ -3945,16 +4362,20 @@
       <c r="E192" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="24">
+        <v>2332.848082</v>
+      </c>
+      <c r="G192" s="17"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>20171003</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C193" s="6">
-        <v>37.36</v>
+        <v>185</v>
+      </c>
+      <c r="C193" s="5">
+        <v>37.14</v>
       </c>
       <c r="D193" s="4">
         <v>43185</v>
@@ -3962,16 +4383,20 @@
       <c r="E193" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="24">
+        <v>2327.6999569999998</v>
+      </c>
+      <c r="G193" s="17"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>20171003</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C194" s="6">
-        <v>37.39</v>
+        <v>186</v>
+      </c>
+      <c r="C194" s="5">
+        <v>37.369999999999997</v>
       </c>
       <c r="D194" s="4">
         <v>43185</v>
@@ -3979,55 +4404,77 @@
       <c r="E194" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="24">
+        <v>2328.8434480000001</v>
+      </c>
+      <c r="G194" s="17"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>20171003</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C195" s="6">
-        <v>37.36</v>
-      </c>
-      <c r="D195" s="4">
-        <v>43185</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="22">
+        <v>2325.87667350129</v>
+      </c>
+      <c r="G195" s="17"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>20171003</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C196" s="6"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="C196" s="5">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="D196" s="4">
+        <v>43185</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F196" s="24">
+        <v>2336.0568589999998</v>
+      </c>
+      <c r="G196" s="17"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>20171003</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C197" s="6"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="C197" s="5">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D197" s="4">
+        <v>43185</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F197" s="24">
+        <v>2340.8938079999998</v>
+      </c>
+      <c r="G197" s="26"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>20171003</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C198" s="6">
-        <v>37.409999999999997</v>
+        <v>190</v>
+      </c>
+      <c r="C198" s="5">
+        <v>37.36</v>
       </c>
       <c r="D198" s="4">
         <v>43185</v>
@@ -4035,16 +4482,20 @@
       <c r="E198" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="24">
+        <v>2324.9754160000002</v>
+      </c>
+      <c r="G198" s="17"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>20171003</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C199" s="6">
-        <v>37.33</v>
+        <v>191</v>
+      </c>
+      <c r="C199" s="5">
+        <v>37.39</v>
       </c>
       <c r="D199" s="4">
         <v>43185</v>
@@ -4052,16 +4503,20 @@
       <c r="E199" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="24">
+        <v>2326.3156960000001</v>
+      </c>
+      <c r="G199" s="17"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>20171003</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C200" s="6">
-        <v>37.380000000000003</v>
+        <v>192</v>
+      </c>
+      <c r="C200" s="5">
+        <v>37.36</v>
       </c>
       <c r="D200" s="4">
         <v>43185</v>
@@ -4069,72 +4524,88 @@
       <c r="E200" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="24">
+        <v>2340.2415649999998</v>
+      </c>
+      <c r="G200" s="17"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>20171003</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C201" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="C201" s="5"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="23"/>
+      <c r="G201" s="17"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>20171003</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C202" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="C202" s="5"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="23"/>
+      <c r="G202" s="15"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>20171003</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C203" s="6">
-        <v>37.380000000000003</v>
+        <v>195</v>
+      </c>
+      <c r="C203" s="5">
+        <v>37.409999999999997</v>
       </c>
       <c r="D203" s="4">
-        <v>43187</v>
+        <v>43185</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="24">
+        <v>2345.5058060000001</v>
+      </c>
+      <c r="G203" s="15"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>20171003</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C204" s="6">
-        <v>37.64</v>
+        <v>196</v>
+      </c>
+      <c r="C204" s="5">
+        <v>37.33</v>
       </c>
       <c r="D204" s="4">
-        <v>43187</v>
+        <v>43185</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="24">
+        <v>2391.729077</v>
+      </c>
+      <c r="G204" s="15"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>20171003</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C205" s="6">
-        <v>37.43</v>
+        <v>197</v>
+      </c>
+      <c r="C205" s="5">
+        <v>37.380000000000003</v>
       </c>
       <c r="D205" s="4">
         <v>43185</v>
@@ -4142,220 +4613,252 @@
       <c r="E205" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="24">
+        <v>2329.2018579999999</v>
+      </c>
+      <c r="G205" s="15"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>20171003</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C206" s="6">
-        <v>37.6</v>
-      </c>
-      <c r="D206" s="4">
-        <v>43188</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="15"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>20171003</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C207" s="6">
-        <v>37.61</v>
-      </c>
-      <c r="D207" s="4">
-        <v>43188</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="C207" s="5"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="15"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>20171003</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C208" s="6">
-        <v>37.729999999999997</v>
+        <v>200</v>
+      </c>
+      <c r="C208" s="5">
+        <v>37.380000000000003</v>
       </c>
       <c r="D208" s="4">
-        <v>43192</v>
+        <v>43187</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="24">
+        <v>2337.4347200000002</v>
+      </c>
+      <c r="G208" s="15"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>20171003</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C209" s="6">
-        <v>37.65</v>
+        <v>201</v>
+      </c>
+      <c r="C209" s="5">
+        <v>37.64</v>
       </c>
       <c r="D209" s="4">
-        <v>43188</v>
+        <v>43187</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="24">
+        <v>2332.9133670821998</v>
+      </c>
+      <c r="G209" s="15"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>20171003</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C210" s="6">
-        <v>37.64</v>
+        <v>202</v>
+      </c>
+      <c r="C210" s="5">
+        <v>37.43</v>
       </c>
       <c r="D210" s="4">
-        <v>43188</v>
+        <v>43185</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="24">
+        <v>2329.5125109999999</v>
+      </c>
+      <c r="G210" s="15"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>20171003</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C211" s="6">
-        <v>37.72</v>
-      </c>
-      <c r="D211" s="4">
+        <v>203</v>
+      </c>
+      <c r="C211" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="D211" s="11">
         <v>43192</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="24">
+        <v>2314.8160859867598</v>
+      </c>
+      <c r="G211" s="27"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>20171003</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C212" s="6">
-        <v>37.74</v>
-      </c>
-      <c r="D212" s="4">
-        <v>43192</v>
+        <v>204</v>
+      </c>
+      <c r="C212" s="5">
+        <v>37.61</v>
+      </c>
+      <c r="D212" s="11">
+        <v>43188</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="20">
+        <v>2323.7864246491899</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>20171003</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C213" s="6">
-        <v>37.619999999999997</v>
-      </c>
-      <c r="D213" s="4">
+        <v>205</v>
+      </c>
+      <c r="C213" s="5">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="D213" s="11">
         <v>43188</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="20">
+        <v>2325.5454308569902</v>
+      </c>
+      <c r="G213" s="12"/>
+      <c r="I213" s="18"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>20171003</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C214" s="6">
-        <v>37.74</v>
+        <v>206</v>
+      </c>
+      <c r="C214" s="5">
+        <v>37.65</v>
       </c>
       <c r="D214" s="4">
-        <v>43192</v>
+        <v>43188</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="20">
+        <v>2301.49956723887</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>20171003</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C215" s="6">
-        <v>37.700000000000003</v>
+        <v>207</v>
+      </c>
+      <c r="C215" s="5">
+        <v>37.64</v>
       </c>
       <c r="D215" s="4">
-        <v>43192</v>
+        <v>43188</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="20">
+        <v>2270.4194986347902</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>20171003</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C216" s="6">
-        <v>37.71</v>
+        <v>208</v>
+      </c>
+      <c r="C216" s="5">
+        <v>37.72</v>
       </c>
       <c r="D216" s="4">
-        <v>43194</v>
+        <v>43192</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="20">
+        <v>2296.3765298170301</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>20171003</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C217" s="6">
-        <v>37.61</v>
+        <v>209</v>
+      </c>
+      <c r="C217" s="5">
+        <v>37.74</v>
       </c>
       <c r="D217" s="4">
-        <v>43188</v>
+        <v>43192</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="20">
+        <v>2315.7582582443601</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>20171003</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C218" s="6">
-        <v>37.65</v>
+        <v>210</v>
+      </c>
+      <c r="C218" s="5">
+        <v>37.619999999999997</v>
       </c>
       <c r="D218" s="4">
         <v>43188</v>
@@ -4363,16 +4866,19 @@
       <c r="E218" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="20">
+        <v>2303.2620247534601</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>20171003</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C219" s="6">
-        <v>37.76</v>
+        <v>211</v>
+      </c>
+      <c r="C219" s="5">
+        <v>37.74</v>
       </c>
       <c r="D219" s="4">
         <v>43192</v>
@@ -4380,50 +4886,59 @@
       <c r="E219" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="20">
+        <v>2321.6200638423702</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>20171003</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C220" s="6">
-        <v>37.69</v>
-      </c>
-      <c r="D220" s="5">
-        <v>43188</v>
+        <v>212</v>
+      </c>
+      <c r="C220" s="5">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D220" s="4">
+        <v>43192</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="20">
+        <v>2307.1865145715601</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>20171003</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C221" s="6">
-        <v>37.700000000000003</v>
+        <v>213</v>
+      </c>
+      <c r="C221" s="5">
+        <v>37.71</v>
       </c>
       <c r="D221" s="4">
-        <v>43188</v>
+        <v>43194</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="20">
+        <v>2311.1710682951798</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>20171003</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C222" s="6">
-        <v>37.729999999999997</v>
+        <v>214</v>
+      </c>
+      <c r="C222" s="5">
+        <v>37.61</v>
       </c>
       <c r="D222" s="4">
         <v>43188</v>
@@ -4431,33 +4946,39 @@
       <c r="E222" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="20">
+        <v>2325.6224932888599</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>20171003</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C223" s="6">
-        <v>37.74</v>
+        <v>215</v>
+      </c>
+      <c r="C223" s="5">
+        <v>37.65</v>
       </c>
       <c r="D223" s="4">
-        <v>43192</v>
+        <v>43188</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="20">
+        <v>2303.8548152707499</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>20171003</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C224" s="6">
-        <v>37.770000000000003</v>
+        <v>216</v>
+      </c>
+      <c r="C224" s="5">
+        <v>37.76</v>
       </c>
       <c r="D224" s="4">
         <v>43192</v>
@@ -4465,32 +4986,38 @@
       <c r="E224" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="20">
+        <v>2315.9711623407302</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>20171003</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C225" s="6">
-        <v>37.799999999999997</v>
+        <v>218</v>
+      </c>
+      <c r="C225" s="5">
+        <v>37.700000000000003</v>
       </c>
       <c r="D225" s="4">
-        <v>43192</v>
+        <v>43188</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="20">
+        <v>2322.3152343521301</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>20171003</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C226" s="6">
+        <v>219</v>
+      </c>
+      <c r="C226" s="5">
         <v>37.729999999999997</v>
       </c>
       <c r="D226" s="4">
@@ -4499,67 +5026,79 @@
       <c r="E226" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="20">
+        <v>2316.6779273212301</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>20171003</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C227" s="6">
-        <v>37.64</v>
+        <v>220</v>
+      </c>
+      <c r="C227" s="5">
+        <v>37.74</v>
       </c>
       <c r="D227" s="4">
-        <v>43188</v>
+        <v>43192</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="20">
+        <v>2316.3645621426999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>20171003</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C228" s="6">
-        <v>37.71</v>
+        <v>221</v>
+      </c>
+      <c r="C228" s="5">
+        <v>37.770000000000003</v>
       </c>
       <c r="D228" s="4">
-        <v>43188</v>
+        <v>43192</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="20">
+        <v>2317.8803487078999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>20171003</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C229" s="6">
-        <v>37.71</v>
+        <v>222</v>
+      </c>
+      <c r="C229" s="5">
+        <v>37.799999999999997</v>
       </c>
       <c r="D229" s="4">
-        <v>43188</v>
+        <v>43192</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="20">
+        <v>2318.7546353899302</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>20171003</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C230" s="6">
-        <v>37.72</v>
+        <v>223</v>
+      </c>
+      <c r="C230" s="5">
+        <v>37.729999999999997</v>
       </c>
       <c r="D230" s="4">
         <v>43188</v>
@@ -4567,16 +5106,19 @@
       <c r="E230" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="20">
+        <v>2317.2257707256999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>20171003</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C231" s="6">
-        <v>37.67</v>
+        <v>224</v>
+      </c>
+      <c r="C231" s="5">
+        <v>37.64</v>
       </c>
       <c r="D231" s="4">
         <v>43188</v>
@@ -4584,703 +5126,777 @@
       <c r="E231" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="20">
+        <v>2274.3489899176102</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
-        <v>20171004</v>
+        <v>20171003</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C232" s="5">
+        <v>37.71</v>
+      </c>
+      <c r="D232" s="4">
+        <v>43188</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F232" s="20">
+        <v>2319.41399873417</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="2">
+        <v>20171003</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C233" s="5">
+        <v>37.71</v>
+      </c>
+      <c r="D233" s="4">
+        <v>43188</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F233" s="20">
+        <v>2306.60785343011</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="2">
+        <v>20171003</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C234" s="5">
+        <v>37.72</v>
+      </c>
+      <c r="D234" s="4">
+        <v>43188</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F234" s="20">
+        <v>2310.5686488105598</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="2">
+        <v>20171003</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C235" s="5">
+        <v>37.67</v>
+      </c>
+      <c r="D235" s="4">
+        <v>43188</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F235" s="20">
+        <v>2289.5521811920999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="2">
+        <v>20171003</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C236" s="10">
+        <v>37.72</v>
+      </c>
+      <c r="D236" s="4">
+        <v>43188</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F236" s="20">
+        <v>2315.8668186729401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C232" s="6"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C233" s="6"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C234" s="6"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C235" s="6"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C236" s="6"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C237" s="6"/>
+      <c r="C237" s="5"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="21"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>20171004</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C238" s="6">
-        <v>38.07</v>
-      </c>
-      <c r="D238" s="4">
-        <v>43199</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="C238" s="5"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="21"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>20171004</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C239" s="6"/>
+        <v>230</v>
+      </c>
+      <c r="C239" s="5"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="21"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>20171004</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C240" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="C240" s="5"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="21"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>20171004</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C241" s="6"/>
+        <v>232</v>
+      </c>
+      <c r="C241" s="5"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="21"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>20171004</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C242" s="6"/>
+        <v>233</v>
+      </c>
+      <c r="C242" s="5"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="21"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>20171004</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C243" s="6"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C243" s="5">
+        <v>38.07</v>
+      </c>
+      <c r="D243" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F243" s="20">
+        <v>2312.6993374899598</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>20171004</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C244" s="6"/>
+        <v>235</v>
+      </c>
+      <c r="C244" s="5"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="21"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>20171004</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C245" s="6"/>
+        <v>236</v>
+      </c>
+      <c r="C245" s="5"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="21"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>20171004</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C246" s="6"/>
+        <v>237</v>
+      </c>
+      <c r="C246" s="5"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="21"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>20171004</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C247" s="6"/>
+        <v>238</v>
+      </c>
+      <c r="C247" s="5"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="21"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>20171004</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C248" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="C248" s="5"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="21"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>20171004</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C249" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="C249" s="5"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="21"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>20171004</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C250" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="C250" s="5"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="21"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>20171004</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C251" s="6"/>
+        <v>242</v>
+      </c>
+      <c r="C251" s="5"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="21"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>20171004</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C252" s="6"/>
+        <v>243</v>
+      </c>
+      <c r="C252" s="5"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="21"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>20171004</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C253" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="C253" s="5"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="21"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>20171004</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C254" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="C254" s="5"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="21"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>20171004</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C255" s="6"/>
+        <v>246</v>
+      </c>
+      <c r="C255" s="5"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="21"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>20171004</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C256" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="C256" s="5"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="21"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>20171004</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C257" s="6"/>
+        <v>248</v>
+      </c>
+      <c r="C257" s="5"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="21"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>20171004</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C258" s="6"/>
+        <v>249</v>
+      </c>
+      <c r="C258" s="5"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="21"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>20171004</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C259" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="C259" s="5"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="21"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>20171004</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C260" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="C260" s="5"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="21"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>20171004</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C261" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="C261" s="5"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="21"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>20171004</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C262" s="6">
-        <v>38.22</v>
-      </c>
-      <c r="D262" s="4">
-        <v>43199</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="C262" s="5"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="21"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>20171004</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C263" s="6"/>
+        <v>254</v>
+      </c>
+      <c r="C263" s="5"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="21"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>20171004</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C264" s="6"/>
+        <v>255</v>
+      </c>
+      <c r="C264" s="5"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="21"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>20171004</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C265" s="6"/>
+        <v>256</v>
+      </c>
+      <c r="C265" s="5"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="21"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>20171004</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C266" s="6"/>
+        <v>257</v>
+      </c>
+      <c r="C266" s="5"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="21"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>20171004</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C267" s="6"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="C267" s="5">
+        <v>38.22</v>
+      </c>
+      <c r="D267" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F267" s="22">
+        <v>2325.0445240230601</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>20171004</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C268" s="6"/>
+        <v>259</v>
+      </c>
+      <c r="C268" s="5"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="21"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>20171004</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C269" s="6"/>
+        <v>260</v>
+      </c>
+      <c r="C269" s="5"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="21"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>20171004</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C270" s="6"/>
+        <v>261</v>
+      </c>
+      <c r="C270" s="5"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="21"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>20171004</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C271" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="C271" s="5"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="21"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>20171004</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C272" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="C272" s="5"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="20"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>20171004</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C273" s="6"/>
+        <v>264</v>
+      </c>
+      <c r="C273" s="5"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="20"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>20171004</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C274" s="6"/>
+        <v>265</v>
+      </c>
+      <c r="C274" s="5"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="21"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>20171004</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C275" s="6"/>
-      <c r="D275" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="C275" s="5"/>
+      <c r="D275" s="1"/>
       <c r="E275" s="1"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="21"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>20171004</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C276" s="6"/>
+        <v>267</v>
+      </c>
+      <c r="C276" s="5"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="21"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>20171004</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C277" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="C277" s="5"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="21"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>20171004</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C278" s="6"/>
+        <v>269</v>
+      </c>
+      <c r="C278" s="5"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="21"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>20171004</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C279" s="6">
-        <v>38.07</v>
-      </c>
-      <c r="D279" s="4">
-        <v>43199</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="C279" s="5"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="21"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>20171004</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C280" s="6">
-        <v>38.1</v>
-      </c>
-      <c r="D280" s="4">
-        <v>43199</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="C280" s="5"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="21"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>20171004</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C281" s="6"/>
+        <v>272</v>
+      </c>
+      <c r="C281" s="5"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="21"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>20171004</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C282" s="6"/>
+        <v>273</v>
+      </c>
+      <c r="C282" s="5"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="21"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>20171004</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C283" s="5"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="21"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A284" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C284" s="5">
+        <v>38.07</v>
+      </c>
+      <c r="D284" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F284" s="22">
+        <v>2323.7556808443801</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C285" s="5">
+        <v>38.1</v>
+      </c>
+      <c r="D285" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F285" s="22">
+        <v>2326.8398959136098</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A286" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C286" s="5"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="21"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C287" s="5"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="21"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C283" s="6">
-        <v>38.01</v>
-      </c>
-      <c r="D283" s="4">
-        <v>43199</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B284" s="2" t="s">
+      <c r="C288" s="5"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="22">
+        <v>2321.97092256323</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C284" s="6">
+      <c r="C289" s="5">
         <v>37.74</v>
-      </c>
-      <c r="D284" s="4">
-        <v>43187</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C285" s="6">
-        <v>37.74</v>
-      </c>
-      <c r="D285" s="4">
-        <v>43187</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C286" s="6">
-        <v>37.79</v>
-      </c>
-      <c r="D286" s="4">
-        <v>43187</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C287" s="6">
-        <v>37.729999999999997</v>
-      </c>
-      <c r="D287" s="4">
-        <v>43187</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C288" s="6">
-        <v>38.119999999999997</v>
-      </c>
-      <c r="D288" s="4">
-        <v>43192</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C289" s="6">
-        <v>37.729999999999997</v>
       </c>
       <c r="D289" s="4">
         <v>43187</v>
@@ -5288,16 +5904,19 @@
       <c r="E289" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="20">
+        <v>2324.1226311086998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>20171004</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C290" s="6">
-        <v>37.75</v>
+        <v>281</v>
+      </c>
+      <c r="C290" s="5">
+        <v>37.74</v>
       </c>
       <c r="D290" s="4">
         <v>43187</v>
@@ -5305,16 +5924,19 @@
       <c r="E290" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="20">
+        <v>2323.70772020391</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>20171004</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C291" s="6">
-        <v>37.75</v>
+        <v>282</v>
+      </c>
+      <c r="C291" s="5">
+        <v>37.79</v>
       </c>
       <c r="D291" s="4">
         <v>43187</v>
@@ -5322,16 +5944,19 @@
       <c r="E291" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="20">
+        <v>2269.53604585424</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>20171004</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C292" s="6">
-        <v>37.78</v>
+        <v>283</v>
+      </c>
+      <c r="C292" s="5">
+        <v>37.729999999999997</v>
       </c>
       <c r="D292" s="4">
         <v>43187</v>
@@ -5339,16 +5964,19 @@
       <c r="E292" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="20">
+        <v>2288.5467797392598</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>20171004</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C293" s="6">
-        <v>38.1</v>
+        <v>284</v>
+      </c>
+      <c r="C293" s="5">
+        <v>38.119999999999997</v>
       </c>
       <c r="D293" s="4">
         <v>43192</v>
@@ -5356,16 +5984,19 @@
       <c r="E293" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="20">
+        <v>2326.80606739217</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>20171004</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C294" s="6">
-        <v>37.74</v>
+        <v>285</v>
+      </c>
+      <c r="C294" s="5">
+        <v>37.729999999999997</v>
       </c>
       <c r="D294" s="4">
         <v>43187</v>
@@ -5373,16 +6004,19 @@
       <c r="E294" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="20">
+        <v>2300.30320627332</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>20171004</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C295" s="6">
-        <v>37.799999999999997</v>
+        <v>286</v>
+      </c>
+      <c r="C295" s="5">
+        <v>37.75</v>
       </c>
       <c r="D295" s="4">
         <v>43187</v>
@@ -5390,33 +6024,39 @@
       <c r="E295" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="20">
+        <v>2330.7425248213799</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>20171004</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C296" s="6">
-        <v>38.090000000000003</v>
+        <v>287</v>
+      </c>
+      <c r="C296" s="5">
+        <v>37.75</v>
       </c>
       <c r="D296" s="4">
-        <v>43192</v>
+        <v>43187</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="20">
+        <v>2327.5713108302298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>20171004</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C297" s="6">
-        <v>37.75</v>
+        <v>288</v>
+      </c>
+      <c r="C297" s="5">
+        <v>37.78</v>
       </c>
       <c r="D297" s="4">
         <v>43187</v>
@@ -5424,50 +6064,59 @@
       <c r="E297" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="20">
+        <v>2324.2870846379001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>20171004</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C298" s="6">
-        <v>37.700000000000003</v>
+        <v>289</v>
+      </c>
+      <c r="C298" s="5">
+        <v>38.1</v>
       </c>
       <c r="D298" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F298" s="20">
+        <v>2329.5810380805401</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C299" s="5">
+        <v>37.74</v>
+      </c>
+      <c r="D299" s="4">
         <v>43187</v>
       </c>
-      <c r="E298" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
-        <v>20171004</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C299" s="6">
-        <v>37.83</v>
-      </c>
-      <c r="D299" s="4">
-        <v>43192</v>
-      </c>
       <c r="E299" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="20">
+        <v>2335.80245546993</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>20171004</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C300" s="6">
-        <v>37.61</v>
+        <v>291</v>
+      </c>
+      <c r="C300" s="5">
+        <v>37.799999999999997</v>
       </c>
       <c r="D300" s="4">
         <v>43187</v>
@@ -5475,16 +6124,19 @@
       <c r="E300" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="20">
+        <v>2322.94248835399</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>20171004</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C301" s="6">
-        <v>38.020000000000003</v>
+        <v>292</v>
+      </c>
+      <c r="C301" s="5">
+        <v>38.090000000000003</v>
       </c>
       <c r="D301" s="4">
         <v>43192</v>
@@ -5492,33 +6144,39 @@
       <c r="E301" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="20">
+        <v>2347.3290183979402</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>20171004</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C302" s="6">
-        <v>37.979999999999997</v>
+        <v>293</v>
+      </c>
+      <c r="C302" s="5">
+        <v>37.75</v>
       </c>
       <c r="D302" s="4">
-        <v>43192</v>
+        <v>43187</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="20">
+        <v>2326.3746212032402</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>20171004</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C303" s="6">
-        <v>37.659999999999997</v>
+        <v>294</v>
+      </c>
+      <c r="C303" s="5">
+        <v>37.700000000000003</v>
       </c>
       <c r="D303" s="4">
         <v>43187</v>
@@ -5526,33 +6184,39 @@
       <c r="E303" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="20">
+        <v>2317.9594422303499</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>20171004</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C304" s="6">
-        <v>37.64</v>
+        <v>295</v>
+      </c>
+      <c r="C304" s="5">
+        <v>37.83</v>
       </c>
       <c r="D304" s="4">
-        <v>43187</v>
+        <v>43188</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="20">
+        <v>2320.6285087425699</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>20171004</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C305" s="6">
-        <v>37.64</v>
+        <v>296</v>
+      </c>
+      <c r="C305" s="5">
+        <v>37.61</v>
       </c>
       <c r="D305" s="4">
         <v>43187</v>
@@ -5560,50 +6224,60 @@
       <c r="E305" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="20">
+        <v>2309.8406128341198</v>
+      </c>
+      <c r="H305" s="14"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>20171004</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C306" s="6">
-        <v>37.630000000000003</v>
+        <v>297</v>
+      </c>
+      <c r="C306" s="5">
+        <v>38.020000000000003</v>
       </c>
       <c r="D306" s="4">
-        <v>43187</v>
+        <v>43192</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="20">
+        <v>2318.4285050220901</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>20171004</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C307" s="6">
-        <v>37.630000000000003</v>
+        <v>298</v>
+      </c>
+      <c r="C307" s="5">
+        <v>37.979999999999997</v>
       </c>
       <c r="D307" s="4">
-        <v>43187</v>
+        <v>43192</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="20">
+        <v>2327.2115589324098</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>20171004</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C308" s="6">
-        <v>37.68</v>
+        <v>299</v>
+      </c>
+      <c r="C308" s="5">
+        <v>37.659999999999997</v>
       </c>
       <c r="D308" s="4">
         <v>43187</v>
@@ -5611,387 +6285,531 @@
       <c r="E308" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="20">
+        <v>2320.0563790290998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>20171004</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C309" s="5">
+        <v>37.64</v>
+      </c>
+      <c r="D309" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F309" s="20">
+        <v>2330.1152122293302</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A310" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C310" s="5">
+        <v>37.64</v>
+      </c>
+      <c r="D310" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F310" s="20">
+        <v>2313.0199983552502</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A311" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C311" s="5">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="D311" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F311" s="20">
+        <v>2319.0688321484699</v>
+      </c>
+      <c r="H311" s="14"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A312" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C312" s="5">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="D312" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F312" s="20">
+        <v>2324.8642958300502</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A313" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C313" s="5">
+        <v>37.68</v>
+      </c>
+      <c r="D313" s="4">
+        <v>43187</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F313" s="20">
+        <v>2316.7891117877498</v>
+      </c>
+      <c r="G313" s="19"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A314" s="2">
+        <v>20171004</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C309" s="6">
+      <c r="C314" s="5">
         <v>37.950000000000003</v>
       </c>
-      <c r="D309" s="4">
+      <c r="D314" s="4">
         <v>43192</v>
       </c>
-      <c r="E309" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
-        <v>20171002</v>
-      </c>
-      <c r="B310" s="2" t="s">
+      <c r="E314" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F314" s="20">
+        <v>2327.80749998699</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A315" s="2">
+        <v>20171002</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C310" s="6"/>
-      <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
-        <v>20171002</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C311" s="6"/>
-      <c r="D311" s="1"/>
-      <c r="E311" s="1"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
-        <v>20171001</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C312" s="6"/>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
-        <v>20171001</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C313" s="6"/>
-      <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
-        <v>20171001</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C314" s="6"/>
-      <c r="D314" s="1"/>
-      <c r="E314" s="1"/>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
-        <v>20171001</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C315" s="6"/>
+      <c r="C315" s="5"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315" s="21"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
-        <v>20171020</v>
+        <v>20171002</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C316" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="C316" s="5"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316" s="21"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
-        <v>20171020</v>
+        <v>20171001</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C317" s="6"/>
+        <v>308</v>
+      </c>
+      <c r="C317" s="5"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317" s="21"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
-        <v>20171020</v>
+        <v>20171001</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C318" s="6"/>
+        <v>309</v>
+      </c>
+      <c r="C318" s="5"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="21"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
-        <v>20171020</v>
+        <v>20171001</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C319" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="C319" s="5"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319" s="21"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
-        <v>20171020</v>
+        <v>20171001</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C320" s="6"/>
+        <v>311</v>
+      </c>
+      <c r="C320" s="5"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320" s="21"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>20171020</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C321" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="C321" s="5"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321" s="21"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>20171020</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C322" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="C322" s="5"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322" s="21"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>20171020</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C323" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="C323" s="5"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323" s="21"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>20171020</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C324" s="6"/>
+        <v>313</v>
+      </c>
+      <c r="C324" s="5"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324" s="21"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>20171020</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C325" s="6"/>
+        <v>314</v>
+      </c>
+      <c r="C325" s="5"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325" s="21"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>20171020</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C326" s="6">
-        <v>39.26</v>
-      </c>
-      <c r="D326" s="4">
-        <v>43199</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="C326" s="5"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="21"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>20171020</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C327" s="6"/>
+        <v>316</v>
+      </c>
+      <c r="C327" s="5"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="21"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>20171020</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C328" s="6"/>
+        <v>317</v>
+      </c>
+      <c r="C328" s="5"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="21"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>20171020</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C329" s="6"/>
+        <v>318</v>
+      </c>
+      <c r="C329" s="5"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="21"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>20171020</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C330" s="6">
-        <v>39.49</v>
-      </c>
-      <c r="D330" s="4">
-        <v>43199</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C330" s="5"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="21"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>20171020</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C331" s="6"/>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="C331" s="5">
+        <v>39.26</v>
+      </c>
+      <c r="D331" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F331" s="22">
+        <v>2462.5670477910899</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>20171020</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C332" s="6"/>
+        <v>321</v>
+      </c>
+      <c r="C332" s="5"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="21"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>20171020</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C333" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="C333" s="5"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="21"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>20171020</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C334" s="6"/>
+        <v>323</v>
+      </c>
+      <c r="C334" s="5"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="21"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>20171020</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C335" s="6"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="1"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="C335" s="5">
+        <v>39.49</v>
+      </c>
+      <c r="D335" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F335" s="22">
+        <v>2478.3638019444802</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>20171020</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C336" s="6"/>
+        <v>346</v>
+      </c>
+      <c r="C336" s="5"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336" s="9"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>20171020</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C337" s="6"/>
+        <v>324</v>
+      </c>
+      <c r="C337" s="5"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337" s="9"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>20171020</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C338" s="6"/>
+        <v>325</v>
+      </c>
+      <c r="C338" s="5"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338" s="9"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>20171020</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C339" s="6"/>
+        <v>326</v>
+      </c>
+      <c r="C339" s="5"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339" s="9"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>20171020</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C340" s="6"/>
+        <v>327</v>
+      </c>
+      <c r="C340" s="5"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340" s="9"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>20171020</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C341" s="6"/>
+        <v>328</v>
+      </c>
+      <c r="C341" s="5"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
+      <c r="F341" s="9"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342" s="2">
+        <v>20171020</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C342" s="5"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="9"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343" s="2">
+        <v>20171020</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C343" s="5"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="9"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344" s="2">
+        <v>20171020</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C344" s="5"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="9"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345" s="2">
+        <v>20171020</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C345" s="5"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="9"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346" s="2">
+        <v>20171020</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C346" s="5"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/BermudaSalinity.xlsx
+++ b/Data/BermudaSalinity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="345">
   <si>
     <t>Fragment.ID</t>
   </si>
@@ -1056,6 +1056,9 @@
   </si>
   <si>
     <t>Start 11c-Dark</t>
+  </si>
+  <si>
+    <t>RB2-7-Dark</t>
   </si>
 </sst>
 </file>
@@ -1407,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4386,7 +4389,7 @@
         <v>20171003</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="C220" s="6">
         <v>37.69</v>
